--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benson\aUpWork\Douglas Backtester Algo\Backtester Algorithm\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Prices and Correlations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +123,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,10 +201,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,28 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>45352</v>
       </c>
@@ -504,25 +475,25 @@
         <v>13.10999965667725</v>
       </c>
       <c r="G2">
-        <v>77.680000305175781</v>
+        <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
-        <v>-0.62649862348349894</v>
+        <v>-0.6264986234834989</v>
       </c>
       <c r="J2">
-        <v>-0.54962168790164201</v>
+        <v>-0.549621687901642</v>
       </c>
       <c r="K2">
-        <v>-0.50867657373074471</v>
+        <v>-0.5086765737307447</v>
       </c>
       <c r="L2">
-        <v>-0.45655880262985438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4565588026298544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45355</v>
       </c>
@@ -539,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="G3">
-        <v>79.410003662109375</v>
+        <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.39694213867188</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
-        <v>-0.62653264928054653</v>
+        <v>-0.6265326492805465</v>
       </c>
       <c r="J3">
-        <v>-0.54942182878570012</v>
+        <v>-0.5494218287857001</v>
       </c>
       <c r="K3">
-        <v>-0.51063154527759458</v>
+        <v>-0.5106315452775946</v>
       </c>
       <c r="L3">
-        <v>-0.45870189687826368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4587018968782637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>45356</v>
       </c>
@@ -577,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.460000038146971</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="G4">
-        <v>83.910003662109375</v>
+        <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4740295410156</v>
       </c>
       <c r="I4">
-        <v>-0.67541697774662968</v>
+        <v>-0.6754169777466297</v>
       </c>
       <c r="J4">
-        <v>-0.58990664678709848</v>
+        <v>-0.5899066467870985</v>
       </c>
       <c r="K4">
-        <v>-0.59327543432020469</v>
+        <v>-0.5932754343202047</v>
       </c>
       <c r="L4">
-        <v>-0.51003561092076655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5100356109207665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>45357</v>
       </c>
@@ -618,25 +589,25 @@
         <v>14.5</v>
       </c>
       <c r="G5">
-        <v>83.110000610351563</v>
+        <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.19784545898438</v>
+        <v>436.1978149414062</v>
       </c>
       <c r="I5">
-        <v>-0.70686730552626253</v>
+        <v>-0.7068673055262625</v>
       </c>
       <c r="J5">
         <v>-0.6819315753196169</v>
       </c>
       <c r="K5">
-        <v>-0.60381993955182378</v>
+        <v>-0.6038199395518238</v>
       </c>
       <c r="L5">
-        <v>-0.54685832260383449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5468583226038345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>45358</v>
       </c>
@@ -653,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.439999580383301</v>
+        <v>14.4399995803833</v>
       </c>
       <c r="G6">
-        <v>82.129997253417969</v>
+        <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.81851196289063</v>
+        <v>442.8185119628906</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -668,13 +639,13 @@
         <v>-0.6799418261808684</v>
       </c>
       <c r="K6">
-        <v>-0.61194886676902638</v>
+        <v>-0.6119488667690264</v>
       </c>
       <c r="L6">
-        <v>-0.55981054810193498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.559810548101935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>45359</v>
       </c>
@@ -685,34 +656,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>20.440000000000001</v>
+        <v>20.44</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.739999771118161</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="G7">
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.42648315429688</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
-        <v>-0.69863245765694837</v>
+        <v>-0.6986324576569484</v>
       </c>
       <c r="J7">
-        <v>-0.71275962927666947</v>
+        <v>-0.7127596292766695</v>
       </c>
       <c r="K7">
-        <v>-0.60652643414527452</v>
+        <v>-0.6065264341452745</v>
       </c>
       <c r="L7">
-        <v>-0.64982125564504734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6498212556450473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>45362</v>
       </c>
@@ -732,25 +703,25 @@
         <v>15.22000026702881</v>
       </c>
       <c r="G8">
-        <v>88.970001220703125</v>
+        <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.80612182617188</v>
+        <v>434.8060913085938</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
       </c>
       <c r="J8">
-        <v>-0.71724254467070503</v>
+        <v>-0.717242544670705</v>
       </c>
       <c r="K8">
-        <v>-0.61020905344367449</v>
+        <v>-0.6102090534436745</v>
       </c>
       <c r="L8">
-        <v>-0.66261103335773264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6626110333577326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>45363</v>
       </c>
@@ -767,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>13.840000152587891</v>
+        <v>13.84000015258789</v>
       </c>
       <c r="G9">
-        <v>83.760002136230469</v>
+        <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.03903198242188</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
-        <v>-0.70285487761030396</v>
+        <v>-0.702854877610304</v>
       </c>
       <c r="J9">
         <v>-0.7324796979894348</v>
       </c>
       <c r="K9">
-        <v>-0.66556580363556739</v>
+        <v>-0.6655658036355674</v>
       </c>
       <c r="L9">
-        <v>-0.69457287155158332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6945728715515833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>45364</v>
       </c>
@@ -808,25 +779,25 @@
         <v>13.75</v>
       </c>
       <c r="G10">
-        <v>86.269996643066406</v>
+        <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.649169921875</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
-        <v>-0.75567662223773224</v>
+        <v>-0.7556766222377322</v>
       </c>
       <c r="J10">
-        <v>-0.75745300571848673</v>
+        <v>-0.7574530057184867</v>
       </c>
       <c r="K10">
-        <v>-0.66641923064399433</v>
+        <v>-0.6664192306439943</v>
       </c>
       <c r="L10">
-        <v>-0.69537019185017757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6953701918501776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>45365</v>
       </c>
@@ -834,10 +805,10 @@
         <v>20.9</v>
       </c>
       <c r="C11">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="D11">
-        <v>19.940000000000001</v>
+        <v>19.94</v>
       </c>
       <c r="E11">
         <v>0.59</v>
@@ -849,22 +820,22 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.54574584960938</v>
+        <v>436.5457763671875</v>
       </c>
       <c r="I11">
-        <v>-0.72026511474943056</v>
+        <v>-0.7202651147494306</v>
       </c>
       <c r="J11">
-        <v>-0.67636119365860081</v>
+        <v>-0.6763611936586008</v>
       </c>
       <c r="K11">
-        <v>-0.68773828990968411</v>
+        <v>-0.6877382899096841</v>
       </c>
       <c r="L11">
-        <v>-0.67511321494949639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6751132149494964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>45366</v>
       </c>
@@ -881,28 +852,28 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14.409999847412109</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="G12">
-        <v>92.169998168945313</v>
+        <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.35662841796881</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
       </c>
       <c r="J12">
-        <v>-0.63307700490254115</v>
+        <v>-0.6330770049025412</v>
       </c>
       <c r="K12">
-        <v>-0.69205984905159779</v>
+        <v>-0.6920598490515978</v>
       </c>
       <c r="L12">
-        <v>-0.71864919655731485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7186491965573149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -919,28 +890,28 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14.329999923706049</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="G13">
-        <v>86.779998779296875</v>
+        <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.47064208984381</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
-        <v>-0.74732048605632884</v>
+        <v>-0.7473204860563288</v>
       </c>
       <c r="J13">
-        <v>-0.67047690855511577</v>
+        <v>-0.6704769085551158</v>
       </c>
       <c r="K13">
-        <v>-0.75300628365086142</v>
+        <v>-0.7530062836508614</v>
       </c>
       <c r="L13">
-        <v>-0.76812950685637371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7681295068563737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>45370</v>
       </c>
@@ -951,34 +922,34 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.239999999999998</v>
+        <v>20.24</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>13.819999694824221</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="G14">
-        <v>83.900001525878906</v>
+        <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.55560302734381</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
       </c>
       <c r="J14">
-        <v>-0.64412072515824004</v>
+        <v>-0.64412072515824</v>
       </c>
       <c r="K14">
-        <v>-0.75161967545749031</v>
+        <v>-0.7516196754574903</v>
       </c>
       <c r="L14">
-        <v>-0.76699874381090627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7669987438109063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>45371</v>
       </c>
@@ -989,34 +960,34 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.039999961853029</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="G15">
-        <v>78.870002746582031</v>
+        <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
-        <v>-0.68325413464436324</v>
+        <v>-0.6832541346443632</v>
       </c>
       <c r="J15">
-        <v>-0.61047729060770317</v>
+        <v>-0.6104772906077032</v>
       </c>
       <c r="K15">
-        <v>-0.76238963597429732</v>
+        <v>-0.7623896359742973</v>
       </c>
       <c r="L15">
-        <v>-0.74281594289560626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7428159428956063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>45372</v>
       </c>
@@ -1027,34 +998,34 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20.420000000000002</v>
+        <v>20.42</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12.920000076293951</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="G16">
-        <v>77.300003051757813</v>
+        <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.82208251953119</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
-        <v>-0.68836213766583065</v>
+        <v>-0.6883621376658307</v>
       </c>
       <c r="J16">
-        <v>-0.63128353016429606</v>
+        <v>-0.6312835301642961</v>
       </c>
       <c r="K16">
-        <v>-0.76225610132768162</v>
+        <v>-0.7622561013276816</v>
       </c>
       <c r="L16">
-        <v>-0.74340667458764287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7434066745876429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>45373</v>
       </c>
@@ -1071,28 +1042,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>13.060000419616699</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="G17">
-        <v>76.489997863769531</v>
+        <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.32974243164063</v>
+        <v>444.3297729492188</v>
       </c>
       <c r="I17">
-        <v>-0.66428386902842274</v>
+        <v>-0.6642838690284227</v>
       </c>
       <c r="J17">
-        <v>-0.59862440418746099</v>
+        <v>-0.598624404187461</v>
       </c>
       <c r="K17">
-        <v>-0.75508971646245193</v>
+        <v>-0.7550897164624519</v>
       </c>
       <c r="L17">
         <v>-0.7630435502584032</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>45376</v>
       </c>
@@ -1109,28 +1080,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>13.189999580383301</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="G18">
-        <v>76.599998474121094</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.71719360351563</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
-        <v>-0.64547062662834076</v>
+        <v>-0.6454706266283408</v>
       </c>
       <c r="J18">
-        <v>-0.58321263350755403</v>
+        <v>-0.583212633507554</v>
       </c>
       <c r="K18">
-        <v>-0.79274842567764869</v>
+        <v>-0.7927484256776487</v>
       </c>
       <c r="L18">
-        <v>-0.77116710335021954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7711671033502195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>45377</v>
       </c>
@@ -1147,28 +1118,28 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>13.239999771118161</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="G19">
-        <v>76.769996643066406</v>
+        <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
-        <v>-0.64630990686433387</v>
+        <v>-0.6463099068643339</v>
       </c>
       <c r="J19">
         <v>-0.5934139436686241</v>
       </c>
       <c r="K19">
-        <v>-0.79588008544001332</v>
+        <v>-0.7958800854400133</v>
       </c>
       <c r="L19">
-        <v>-0.76837623547106026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7683762354710603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>45378</v>
       </c>
@@ -1191,22 +1162,22 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
-        <v>-0.62451198817477738</v>
+        <v>-0.6245119881747774</v>
       </c>
       <c r="J20">
-        <v>-0.58344201946320051</v>
+        <v>-0.5834420194632005</v>
       </c>
       <c r="K20">
-        <v>-0.77994965633137481</v>
+        <v>-0.7799496563313748</v>
       </c>
       <c r="L20">
-        <v>-0.76453557897372004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.76453557897372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>45379</v>
       </c>
@@ -1223,28 +1194,28 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>13.010000228881839</v>
+        <v>13.01000022888184</v>
       </c>
       <c r="G21">
-        <v>76.569999694824219</v>
+        <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.97064208984381</v>
+        <v>441.9706726074219</v>
       </c>
       <c r="I21">
-        <v>-0.63364773323109114</v>
+        <v>-0.6336477332310911</v>
       </c>
       <c r="J21">
-        <v>-0.59113725090510649</v>
+        <v>-0.5911372509051065</v>
       </c>
       <c r="K21">
-        <v>-0.78080055520752001</v>
+        <v>-0.78080055520752</v>
       </c>
       <c r="L21">
-        <v>-0.76509305906059688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7650930590605969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>45383</v>
       </c>
@@ -1264,25 +1235,25 @@
         <v>13.64999961853027</v>
       </c>
       <c r="G22">
-        <v>78.449996948242188</v>
+        <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.90631103515619</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
-        <v>-0.60880846778650832</v>
+        <v>-0.6088084677865083</v>
       </c>
       <c r="J22">
         <v>-0.5686012550622892</v>
       </c>
       <c r="K22">
-        <v>-0.70973569939303449</v>
+        <v>-0.7097356993930345</v>
       </c>
       <c r="L22">
-        <v>-0.72797824097222852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7279782409722285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>45384</v>
       </c>
@@ -1302,25 +1273,25 @@
         <v>14.60999965667725</v>
       </c>
       <c r="G23">
-        <v>82.760002136230469</v>
+        <v>82.76000213623047</v>
       </c>
       <c r="H23">
-        <v>439.08392333984381</v>
+        <v>439.0839233398438</v>
       </c>
       <c r="I23">
-        <v>-0.61084304149159341</v>
+        <v>-0.6108430414915934</v>
       </c>
       <c r="J23">
-        <v>-0.58552568664369686</v>
+        <v>-0.5855256866436969</v>
       </c>
       <c r="K23">
-        <v>-0.69223109120387538</v>
+        <v>-0.6922310912038754</v>
       </c>
       <c r="L23">
-        <v>-0.73849894499208169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7384989449920817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>45385</v>
       </c>
@@ -1331,34 +1302,34 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>20.420000000000002</v>
+        <v>20.42</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>14.329999923706049</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="G24">
-        <v>81.080001831054688</v>
+        <v>81.08000183105469</v>
       </c>
       <c r="H24">
-        <v>440.06939697265619</v>
+        <v>440.0693969726562</v>
       </c>
       <c r="I24">
-        <v>-0.61143064079147902</v>
+        <v>-0.611430640791479</v>
       </c>
       <c r="J24">
-        <v>-0.58560222509237714</v>
+        <v>-0.5856022250923771</v>
       </c>
       <c r="K24">
-        <v>-0.68525587584389092</v>
+        <v>-0.6852558758438909</v>
       </c>
       <c r="L24">
-        <v>-0.73432970330219094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7343297033021909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>45386</v>
       </c>
@@ -1369,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1378,25 +1349,25 @@
         <v>16.35000038146973</v>
       </c>
       <c r="G25">
-        <v>90.040000915527344</v>
+        <v>90.04000091552734</v>
       </c>
       <c r="H25">
         <v>433.3404541015625</v>
       </c>
       <c r="I25">
-        <v>-0.57544580217267216</v>
+        <v>-0.5754458021726722</v>
       </c>
       <c r="J25">
-        <v>-0.56910529742921223</v>
+        <v>-0.5691052974292122</v>
       </c>
       <c r="K25">
-        <v>-0.54762034515577573</v>
+        <v>-0.5476203451557757</v>
       </c>
       <c r="L25">
         <v>-0.6223527107593444</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>45387</v>
       </c>
@@ -1413,28 +1384,28 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>16.030000686645511</v>
+        <v>16.03000068664551</v>
       </c>
       <c r="G26">
-        <v>90.580001831054688</v>
+        <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468994140625</v>
+        <v>438.4468688964844</v>
       </c>
       <c r="I26">
-        <v>-0.58999237979737384</v>
+        <v>-0.5899923797973738</v>
       </c>
       <c r="J26">
-        <v>-0.55886491679557004</v>
+        <v>-0.55886491679557</v>
       </c>
       <c r="K26">
-        <v>-0.55567029599968421</v>
+        <v>-0.5556702959996842</v>
       </c>
       <c r="L26">
-        <v>-0.62179066905304314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6217906690530431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>45390</v>
       </c>
@@ -1451,28 +1422,28 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>15.189999580383301</v>
+        <v>15.1899995803833</v>
       </c>
       <c r="G27">
-        <v>86.260002136230469</v>
+        <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
-        <v>-0.60827273096550627</v>
+        <v>-0.6082727309655063</v>
       </c>
       <c r="J27">
-        <v>-0.56853687037819145</v>
+        <v>-0.5685368703781915</v>
       </c>
       <c r="K27">
-        <v>-0.57851868663966144</v>
+        <v>-0.5785186866396614</v>
       </c>
       <c r="L27">
-        <v>-0.63402853626462929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6340285362646293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>45391</v>
       </c>
@@ -1492,25 +1463,25 @@
         <v>14.97999954223633</v>
       </c>
       <c r="G28">
-        <v>84.449996948242188</v>
+        <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.19879150390619</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
-        <v>-0.60895891988364048</v>
+        <v>-0.6089589198836405</v>
       </c>
       <c r="J28">
-        <v>-0.58376475776728987</v>
+        <v>-0.5837647577672899</v>
       </c>
       <c r="K28">
         <v>-0.5762103211289229</v>
       </c>
       <c r="L28">
-        <v>-0.61148276458924544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6114827645892454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>45392</v>
       </c>
@@ -1530,25 +1501,25 @@
         <v>15.80000019073486</v>
       </c>
       <c r="G29">
-        <v>91.760002136230469</v>
+        <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.35653686523438</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
-        <v>-0.61209420927425373</v>
+        <v>-0.6120942092742537</v>
       </c>
       <c r="J29">
-        <v>-0.56432770596578308</v>
+        <v>-0.5643277059657831</v>
       </c>
       <c r="K29">
-        <v>-0.55801347394411827</v>
+        <v>-0.5580134739441183</v>
       </c>
       <c r="L29">
         <v>-0.5582375204829545</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>45393</v>
       </c>
@@ -1565,28 +1536,28 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="G30">
-        <v>89.400001525878906</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="H30">
-        <v>443.32437133789063</v>
+        <v>443.3243713378906</v>
       </c>
       <c r="I30">
-        <v>-0.60483287368055305</v>
+        <v>-0.6048328736805531</v>
       </c>
       <c r="J30">
-        <v>-0.54407589159450953</v>
+        <v>-0.5440758915945095</v>
       </c>
       <c r="K30">
-        <v>-0.50541961946693992</v>
+        <v>-0.5054196194669399</v>
       </c>
       <c r="L30">
-        <v>-0.51163289932025813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5116328993202581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>45394</v>
       </c>
@@ -1603,28 +1574,28 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>17.309999465942379</v>
+        <v>17.30999946594238</v>
       </c>
       <c r="G31">
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.25698852539063</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
-        <v>-0.65777314004908083</v>
+        <v>-0.6577731400490808</v>
       </c>
       <c r="J31">
-        <v>-0.60690316471753292</v>
+        <v>-0.6069031647175329</v>
       </c>
       <c r="K31">
-        <v>-0.56902611079431153</v>
+        <v>-0.5690261107943115</v>
       </c>
       <c r="L31">
-        <v>-0.55706978839810628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5570697883981063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>45397</v>
       </c>
@@ -1641,28 +1612,28 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>19.229999542236332</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="G32">
-        <v>109.63999938964839</v>
+        <v>109.6399993896484</v>
       </c>
       <c r="H32">
-        <v>429.08010864257813</v>
+        <v>429.0801086425781</v>
       </c>
       <c r="I32">
-        <v>-0.87210738831803791</v>
+        <v>-0.8721073883180379</v>
       </c>
       <c r="J32">
-        <v>-0.81846499210708734</v>
+        <v>-0.8184649921070873</v>
       </c>
       <c r="K32">
-        <v>-0.76776643787222221</v>
+        <v>-0.7677664378722222</v>
       </c>
       <c r="L32">
-        <v>-0.76821097853647857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7682109785364786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>45398</v>
       </c>
@@ -1685,27 +1656,27 @@
         <v>99.25</v>
       </c>
       <c r="H33">
-        <v>429.11993408203119</v>
+        <v>429.1199340820312</v>
       </c>
       <c r="I33">
-        <v>-0.83301004055571626</v>
+        <v>-0.8330100405557163</v>
       </c>
       <c r="J33">
-        <v>-0.73209109097364333</v>
+        <v>-0.7320910909736433</v>
       </c>
       <c r="K33">
-        <v>-0.72615638387405412</v>
+        <v>-0.7261563838740541</v>
       </c>
       <c r="L33">
-        <v>-0.63529389817486293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6352938981748629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>45399</v>
       </c>
       <c r="B34">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="C34">
         <v>0.63</v>
@@ -1720,30 +1691,30 @@
         <v>18.20999908447266</v>
       </c>
       <c r="G34">
-        <v>98.760002136230469</v>
+        <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.88406372070313</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
-        <v>-0.56324619114315033</v>
+        <v>-0.5632461911431503</v>
       </c>
       <c r="J34">
-        <v>-0.49046282581523959</v>
+        <v>-0.4904628258152396</v>
       </c>
       <c r="K34">
-        <v>-0.40896255761323169</v>
+        <v>-0.4089625576132317</v>
       </c>
       <c r="L34">
-        <v>-0.34586855587936599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.345868555879366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>45400</v>
       </c>
       <c r="B35">
-        <v>19.850000000000001</v>
+        <v>19.85</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1758,25 +1729,25 @@
         <v>18</v>
       </c>
       <c r="G35">
-        <v>95.989997863769531</v>
+        <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.46527099609381</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
-        <v>-0.56704713391717354</v>
+        <v>-0.5670471339171735</v>
       </c>
       <c r="J35">
-        <v>-0.48881092609504051</v>
+        <v>-0.4888109260950405</v>
       </c>
       <c r="K35">
-        <v>-0.38085699859970662</v>
+        <v>-0.3808569985997066</v>
       </c>
       <c r="L35">
-        <v>-0.31223930499673241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3122393049967324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>45401</v>
       </c>
@@ -1796,106 +1767,106 @@
         <v>18.70999908447266</v>
       </c>
       <c r="G36">
-        <v>99.089996337890625</v>
+        <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.74545288085938</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
-        <v>-0.53167182726367124</v>
+        <v>-0.5316718272636712</v>
       </c>
       <c r="J36">
-        <v>-0.45415266032338591</v>
+        <v>-0.4541526603233859</v>
       </c>
       <c r="K36">
-        <v>-0.34277221416429848</v>
+        <v>-0.3427722141642985</v>
       </c>
       <c r="L36">
-        <v>-0.27936509527753478</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.2793650952775348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>45404</v>
       </c>
       <c r="B37">
-        <v>19.690000000000001</v>
+        <v>19.69</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>16.940000534057621</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="G37">
-        <v>89.540000915527344</v>
+        <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
       </c>
       <c r="J37">
-        <v>-0.51675259337956359</v>
+        <v>-0.5167525933795636</v>
       </c>
       <c r="K37">
         <v>-0.386505646977575</v>
       </c>
       <c r="L37">
-        <v>-0.32898803506473612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3289880350647361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>45405</v>
       </c>
       <c r="B38">
-        <v>20.010000000000002</v>
+        <v>20.01</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>19.260000000000002</v>
+        <v>19.26</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>15.689999580383301</v>
+        <v>15.6899995803833</v>
       </c>
       <c r="G38">
-        <v>82.360000610351563</v>
+        <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.11761474609381</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
-        <v>-0.62368414590236243</v>
+        <v>-0.6236841459023624</v>
       </c>
       <c r="J38">
-        <v>-0.56242683501383761</v>
+        <v>-0.5624268350138376</v>
       </c>
       <c r="K38">
-        <v>-0.45155946174942863</v>
+        <v>-0.4515594617494286</v>
       </c>
       <c r="L38">
-        <v>-0.39409803093872681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3940980309387268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>45406</v>
       </c>
       <c r="B39">
-        <v>20.059999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1910,7 +1881,7 @@
         <v>15.97000026702881</v>
       </c>
       <c r="G39">
-        <v>83.610000610351563</v>
+        <v>83.61000061035156</v>
       </c>
       <c r="H39">
         <v>424.551025390625</v>
@@ -1919,16 +1890,16 @@
         <v>-0.6329546700206069</v>
       </c>
       <c r="J39">
-        <v>-0.56678467946213984</v>
+        <v>-0.5667846794621398</v>
       </c>
       <c r="K39">
         <v>-0.4317595505264647</v>
       </c>
       <c r="L39">
-        <v>-0.37310073979826169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3731007397982617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>45407</v>
       </c>
@@ -1939,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>19.190000000000001</v>
+        <v>19.19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1948,25 +1919,25 @@
         <v>15.36999988555908</v>
       </c>
       <c r="G40">
-        <v>82.540000915527344</v>
+        <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50051879882813</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
-        <v>-0.62144300881749459</v>
+        <v>-0.6214430088174946</v>
       </c>
       <c r="J40">
-        <v>-0.56396092372980278</v>
+        <v>-0.5639609237298028</v>
       </c>
       <c r="K40">
-        <v>-0.38469526751407002</v>
+        <v>-0.38469526751407</v>
       </c>
       <c r="L40">
-        <v>-0.35049824777659311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3504982477765931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>45408</v>
       </c>
@@ -1977,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1992,24 +1963,24 @@
         <v>429.0203857421875</v>
       </c>
       <c r="I41">
-        <v>-0.62171348962092254</v>
+        <v>-0.6217134896209225</v>
       </c>
       <c r="J41">
-        <v>-0.57465361199525833</v>
+        <v>-0.5746536119952583</v>
       </c>
       <c r="K41">
-        <v>-0.39122188396633778</v>
+        <v>-0.3912218839663378</v>
       </c>
       <c r="L41">
-        <v>-0.37325256971186821</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3732525697118682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>45411</v>
       </c>
       <c r="B42">
-        <v>20.309999999999999</v>
+        <v>20.31</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2021,33 +1992,33 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>14.670000076293951</v>
+        <v>14.67000007629395</v>
       </c>
       <c r="G42">
-        <v>78.220001220703125</v>
+        <v>78.22000122070312</v>
       </c>
       <c r="H42">
-        <v>430.76235961914063</v>
+        <v>430.7623596191406</v>
       </c>
       <c r="I42">
         <v>-0.630838869966445</v>
       </c>
       <c r="J42">
-        <v>-0.58042079244750855</v>
+        <v>-0.5804207924475085</v>
       </c>
       <c r="K42">
-        <v>-0.40140348802102599</v>
+        <v>-0.401403488021026</v>
       </c>
       <c r="L42">
-        <v>-0.37898390874730409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3789839087473041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>45412</v>
       </c>
       <c r="B43">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2062,25 +2033,25 @@
         <v>15.64999961853027</v>
       </c>
       <c r="G43">
-        <v>81.819999694824219</v>
+        <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.63980102539063</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
-        <v>-0.65140244614127463</v>
+        <v>-0.6514024461412746</v>
       </c>
       <c r="J43">
         <v>-0.5938324002136236</v>
       </c>
       <c r="K43">
-        <v>-0.43915130750036241</v>
+        <v>-0.4391513075003624</v>
       </c>
       <c r="L43">
-        <v>-0.40475929566905289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4047592956690529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>45413</v>
       </c>
@@ -2100,25 +2071,25 @@
         <v>15.39000034332275</v>
       </c>
       <c r="G44">
-        <v>81.930000305175781</v>
+        <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.58392333984381</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
-        <v>-0.64539218489331018</v>
+        <v>-0.6453921848933102</v>
       </c>
       <c r="J44">
-        <v>-0.59050726508557649</v>
+        <v>-0.5905072650855765</v>
       </c>
       <c r="K44">
-        <v>-0.43625280858443111</v>
+        <v>-0.4362528085844311</v>
       </c>
       <c r="L44">
-        <v>-0.39701103060929482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3970110306092948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>45414</v>
       </c>
@@ -2135,28 +2106,28 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>14.680000305175779</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="G45">
-        <v>78.589996337890625</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="H45">
         <v>424.939208984375</v>
       </c>
       <c r="I45">
-        <v>-0.65114091807801877</v>
+        <v>-0.6511409180780188</v>
       </c>
       <c r="J45">
-        <v>-0.59559454429740299</v>
+        <v>-0.595594544297403</v>
       </c>
       <c r="K45">
-        <v>-0.45402013890148762</v>
+        <v>-0.4540201389014876</v>
       </c>
       <c r="L45">
-        <v>-0.41333413924692169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4133341392469217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45415</v>
       </c>
@@ -2173,28 +2144,28 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="G46">
-        <v>74.569999694824219</v>
+        <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.47982788085938</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
-        <v>-0.67350260685703445</v>
+        <v>-0.6735026068570344</v>
       </c>
       <c r="J46">
-        <v>-0.59903908575010523</v>
+        <v>-0.5990390857501052</v>
       </c>
       <c r="K46">
-        <v>-0.52302457725994767</v>
+        <v>-0.5230245772599477</v>
       </c>
       <c r="L46">
-        <v>-0.45362407407766497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.453624074077665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>45418</v>
       </c>
@@ -2211,28 +2182,28 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>13.489999771118161</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="G47">
-        <v>73.459999084472656</v>
+        <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.22787475585938</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
-        <v>-0.65982406628853341</v>
+        <v>-0.6598240662885334</v>
       </c>
       <c r="J47">
-        <v>-0.60758236158387413</v>
+        <v>-0.6075823615838741</v>
       </c>
       <c r="K47">
-        <v>-0.51388414127334292</v>
+        <v>-0.5138841412733429</v>
       </c>
       <c r="L47">
-        <v>-0.46008909270942178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4600890927094218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>45419</v>
       </c>
@@ -2252,25 +2223,25 @@
         <v>13.22999954223633</v>
       </c>
       <c r="G48">
-        <v>74.540000915527344</v>
+        <v>74.54000091552734</v>
       </c>
       <c r="H48">
-        <v>438.29757690429688</v>
+        <v>438.2975769042969</v>
       </c>
       <c r="I48">
-        <v>-0.64592190331999577</v>
+        <v>-0.6459219033199958</v>
       </c>
       <c r="J48">
         <v>-0.603009164263827</v>
       </c>
       <c r="K48">
-        <v>-0.50314857000154556</v>
+        <v>-0.5031485700015456</v>
       </c>
       <c r="L48">
-        <v>-0.45338896703005771</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4533889670300577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>45420</v>
       </c>
@@ -2293,22 +2264,22 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.03875732421881</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
-        <v>-0.64393864139854473</v>
+        <v>-0.6439386413985447</v>
       </c>
       <c r="J49">
-        <v>-0.60190805282408633</v>
+        <v>-0.6019080528240863</v>
       </c>
       <c r="K49">
-        <v>-0.50197726728804259</v>
+        <v>-0.5019772672880426</v>
       </c>
       <c r="L49">
-        <v>-0.45266748579578592</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4526674857957859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>45421</v>
       </c>
@@ -2325,28 +2296,28 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>12.689999580383301</v>
+        <v>12.6899995803833</v>
       </c>
       <c r="G50">
-        <v>73.769996643066406</v>
+        <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.99435424804688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
       </c>
       <c r="J50">
-        <v>-0.63171778733261363</v>
+        <v>-0.6317177873326136</v>
       </c>
       <c r="K50">
-        <v>-0.51359113947229018</v>
+        <v>-0.5135911394722902</v>
       </c>
       <c r="L50">
-        <v>-0.48480563272861721</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4848056327286172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>45422</v>
       </c>
@@ -2366,25 +2337,25 @@
         <v>12.55000019073486</v>
       </c>
       <c r="G51">
-        <v>73.260002136230469</v>
+        <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.02957153320313</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
-        <v>-0.63653909960190991</v>
+        <v>-0.6365390996019099</v>
       </c>
       <c r="J51">
-        <v>-0.62840044039560194</v>
+        <v>-0.6284004403956019</v>
       </c>
       <c r="K51">
-        <v>-0.49358822583247619</v>
+        <v>-0.4935882258324762</v>
       </c>
       <c r="L51">
-        <v>-0.48280540650554932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4828054065055493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>45425</v>
       </c>
@@ -2404,25 +2375,25 @@
         <v>13.60000038146973</v>
       </c>
       <c r="G52">
-        <v>77.550003051757813</v>
+        <v>77.55000305175781</v>
       </c>
       <c r="H52">
-        <v>441.04489135742188</v>
+        <v>441.0448913574219</v>
       </c>
       <c r="I52">
-        <v>-0.52707906641916658</v>
+        <v>-0.5270790664191666</v>
       </c>
       <c r="J52">
-        <v>-0.54714991154725345</v>
+        <v>-0.5471499115472535</v>
       </c>
       <c r="K52">
-        <v>-0.43764387610344568</v>
+        <v>-0.4376438761034457</v>
       </c>
       <c r="L52">
-        <v>-0.44546182056532713</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4454618205653271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>45426</v>
       </c>
@@ -2439,39 +2410,39 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>13.420000076293951</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="G53">
-        <v>77.650001525878906</v>
+        <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.88180541992188</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
-        <v>-0.44546886494144072</v>
+        <v>-0.4454688649414407</v>
       </c>
       <c r="J53">
-        <v>-0.46613200875600419</v>
+        <v>-0.4661320087560042</v>
       </c>
       <c r="K53">
-        <v>-0.38678758589695039</v>
+        <v>-0.3867875858969504</v>
       </c>
       <c r="L53">
-        <v>-0.38571791153270801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.385717911532708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>45427</v>
       </c>
       <c r="B54">
-        <v>20.059999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="C54">
         <v>0.73</v>
       </c>
       <c r="D54">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="E54">
         <v>0.64</v>
@@ -2483,22 +2454,22 @@
         <v>76.30999755859375</v>
       </c>
       <c r="H54">
-        <v>450.81979370117188</v>
+        <v>450.8197937011719</v>
       </c>
       <c r="I54">
         <v>-0.3008924621363987</v>
       </c>
       <c r="J54">
-        <v>-0.49345731931250891</v>
+        <v>-0.4934573193125089</v>
       </c>
       <c r="K54">
-        <v>-0.25974130651850702</v>
+        <v>-0.259741306518507</v>
       </c>
       <c r="L54">
-        <v>-0.42264965984562403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.422649659845624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>45428</v>
       </c>
@@ -2509,39 +2480,39 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>19.940000000000001</v>
+        <v>19.94</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>12.420000076293951</v>
+        <v>12.42000007629395</v>
       </c>
       <c r="G55">
-        <v>77.739997863769531</v>
+        <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
-        <v>-0.33626496649233278</v>
+        <v>-0.3362649664923328</v>
       </c>
       <c r="J55">
-        <v>-0.55744150096524869</v>
+        <v>-0.5574415009652487</v>
       </c>
       <c r="K55">
-        <v>-0.28577964039226589</v>
+        <v>-0.2857796403922659</v>
       </c>
       <c r="L55">
         <v>-0.4703177596186901</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>45429</v>
       </c>
       <c r="B56">
-        <v>20.170000000000002</v>
+        <v>20.17</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2553,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>11.989999771118161</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="G56">
-        <v>78.430000305175781</v>
+        <v>78.43000030517578</v>
       </c>
       <c r="H56">
-        <v>449.68502807617188</v>
+        <v>449.6850280761719</v>
       </c>
       <c r="I56">
         <v>-0.3410488631123233</v>
@@ -2568,13 +2539,13 @@
         <v>-0.5510486072712073</v>
       </c>
       <c r="K56">
-        <v>-0.28532502795925119</v>
+        <v>-0.2853250279592512</v>
       </c>
       <c r="L56">
         <v>-0.484476061070717</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>45432</v>
       </c>
@@ -2594,25 +2565,25 @@
         <v>12.14999961853027</v>
       </c>
       <c r="G57">
-        <v>79.449996948242188</v>
+        <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
-        <v>-0.22538659271895109</v>
+        <v>-0.2253865927189511</v>
       </c>
       <c r="J57">
-        <v>-0.48259038557388728</v>
+        <v>-0.4825903855738873</v>
       </c>
       <c r="K57">
-        <v>-0.16668648934481881</v>
+        <v>-0.1666864893448188</v>
       </c>
       <c r="L57">
-        <v>-0.42798144979664149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4279814497966415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>45433</v>
       </c>
@@ -2623,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>20.170000000000002</v>
+        <v>20.17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2632,25 +2603,25 @@
         <v>11.85999965667725</v>
       </c>
       <c r="G58">
-        <v>77.620002746582031</v>
+        <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.70648193359381</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
       </c>
       <c r="J58">
-        <v>-0.41953247756223028</v>
+        <v>-0.4195324775622303</v>
       </c>
       <c r="K58">
-        <v>-0.14000178809766381</v>
+        <v>-0.1400017880976638</v>
       </c>
       <c r="L58">
-        <v>-0.44849559299764341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4484955929976434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>45434</v>
       </c>
@@ -2661,45 +2632,45 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>12.289999961853029</v>
+        <v>12.28999996185303</v>
       </c>
       <c r="G59">
-        <v>79.959999084472656</v>
+        <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.61685180664063</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
-        <v>-9.1564098094935362E-2</v>
+        <v>-0.09156409809493536</v>
       </c>
       <c r="J59">
-        <v>-0.35606146303140079</v>
+        <v>-0.3560614630314008</v>
       </c>
       <c r="K59">
-        <v>-7.1397470560659135E-2</v>
+        <v>-0.07139747056065913</v>
       </c>
       <c r="L59">
-        <v>-0.37655679621188459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3765567962118846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>45435</v>
       </c>
       <c r="B60">
-        <v>19.940000000000001</v>
+        <v>19.94</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2708,30 +2679,30 @@
         <v>12.77000045776367</v>
       </c>
       <c r="G60">
-        <v>84.620002746582031</v>
+        <v>84.62000274658203</v>
       </c>
       <c r="H60">
-        <v>451.57632446289063</v>
+        <v>451.5763244628906</v>
       </c>
       <c r="I60">
         <v>-0.1654728454402728</v>
       </c>
       <c r="J60">
-        <v>-0.43208460493315121</v>
+        <v>-0.4320846049331512</v>
       </c>
       <c r="K60">
-        <v>-0.15567647865965381</v>
+        <v>-0.1556764786596538</v>
       </c>
       <c r="L60">
         <v>-0.450787570367713</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>45436</v>
       </c>
       <c r="B61">
-        <v>20.260000000000002</v>
+        <v>20.26</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2743,28 +2714,28 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>11.930000305175779</v>
+        <v>11.93000030517578</v>
       </c>
       <c r="G61">
-        <v>79.089996337890625</v>
+        <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.84661865234381</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
-        <v>-0.25268907083849251</v>
+        <v>-0.2526890708384925</v>
       </c>
       <c r="J61">
-        <v>-0.50927364403694864</v>
+        <v>-0.5092736440369486</v>
       </c>
       <c r="K61">
-        <v>-0.30183105764621282</v>
+        <v>-0.3018310576462128</v>
       </c>
       <c r="L61">
-        <v>-0.58610890024114748</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5861089002411475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>45440</v>
       </c>
@@ -2781,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>12.920000076293951</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="G62">
-        <v>81.639999389648438</v>
+        <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.56866455078119</v>
+        <v>457.5686340332031</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2796,18 +2767,18 @@
         <v>-0.4628464938210512</v>
       </c>
       <c r="K62">
-        <v>-0.29795819332390239</v>
+        <v>-0.2979581933239024</v>
       </c>
       <c r="L62">
-        <v>-0.55093458807913209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5509345880791321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>45441</v>
       </c>
       <c r="B63">
-        <v>20.190000000000001</v>
+        <v>20.19</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2822,25 +2793,25 @@
         <v>14.27999973297119</v>
       </c>
       <c r="G63">
-        <v>83.790000915527344</v>
+        <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.34353637695313</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
-        <v>-0.22281125136884711</v>
+        <v>-0.2228112513688471</v>
       </c>
       <c r="J63">
-        <v>-0.46544042048529222</v>
+        <v>-0.4654404204852922</v>
       </c>
       <c r="K63">
-        <v>-0.23587302553338579</v>
+        <v>-0.2358730255333858</v>
       </c>
       <c r="L63">
-        <v>-0.52779955313373439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5277995531337344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>45442</v>
       </c>
@@ -2863,22 +2834,22 @@
         <v>83.44000244140625</v>
       </c>
       <c r="H64">
-        <v>449.47598266601563</v>
+        <v>449.4759826660156</v>
       </c>
       <c r="I64">
-        <v>-0.13067089274324281</v>
+        <v>-0.1306708927432428</v>
       </c>
       <c r="J64">
-        <v>-0.40276197105386369</v>
+        <v>-0.4027619710538637</v>
       </c>
       <c r="K64">
-        <v>-0.15597455396136339</v>
+        <v>-0.1559745539613634</v>
       </c>
       <c r="L64">
-        <v>-0.44282569607148969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4428256960714897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>45443</v>
       </c>
@@ -2895,28 +2866,28 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>12.920000076293951</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="G65">
-        <v>78.269996643066406</v>
+        <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.63983154296881</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
-        <v>-8.285066154926278E-2</v>
+        <v>-0.08285066154926278</v>
       </c>
       <c r="J65">
-        <v>-0.32752972647832151</v>
+        <v>-0.3275297264783215</v>
       </c>
       <c r="K65">
         <v>-0.1007305365293458</v>
       </c>
       <c r="L65">
-        <v>-0.36689563059953278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3668956305995328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>45446</v>
       </c>
@@ -2927,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>20.309999999999999</v>
+        <v>20.31</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2936,63 +2907,63 @@
         <v>13.10999965667725</v>
       </c>
       <c r="G66">
-        <v>78.790000915527344</v>
+        <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.04873657226563</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
-        <v>-6.8419724088479633E-3</v>
+        <v>-0.006841972408847963</v>
       </c>
       <c r="J66">
         <v>-0.2429610588336644</v>
       </c>
       <c r="K66">
-        <v>-4.2701899207305993E-2</v>
+        <v>-0.04270189920730599</v>
       </c>
       <c r="L66">
         <v>-0.3042824604958479</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>45447</v>
       </c>
       <c r="B67">
-        <v>20.260000000000002</v>
+        <v>20.26</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>20.329999999999998</v>
+        <v>20.33</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>13.159999847412109</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="G67">
-        <v>77.650001525878906</v>
+        <v>77.65000152587891</v>
       </c>
       <c r="H67">
-        <v>452.28305053710938</v>
+        <v>452.2830505371094</v>
       </c>
       <c r="I67">
-        <v>9.2680539288448646E-2</v>
+        <v>0.09268053928844865</v>
       </c>
       <c r="J67">
-        <v>-0.16743682362371681</v>
+        <v>-0.1674368236237168</v>
       </c>
       <c r="K67">
         <v>0.1041263985193963</v>
       </c>
       <c r="L67">
-        <v>-0.18726511694613121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.1872651169461312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>45448</v>
       </c>
@@ -3012,25 +2983,25 @@
         <v>12.63000011444092</v>
       </c>
       <c r="G68">
-        <v>75.239997863769531</v>
+        <v>75.23999786376953</v>
       </c>
       <c r="H68">
-        <v>461.40097045898438</v>
+        <v>461.4009704589844</v>
       </c>
       <c r="I68">
-        <v>5.2860361845129031E-2</v>
+        <v>0.05286036184512903</v>
       </c>
       <c r="J68">
         <v>-0.187102874535435</v>
       </c>
       <c r="K68">
-        <v>4.5035846830155109E-2</v>
+        <v>0.04503584683015511</v>
       </c>
       <c r="L68">
-        <v>-0.22606817548701599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.226068175487016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>45449</v>
       </c>
@@ -3047,33 +3018,33 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12.579999923706049</v>
+        <v>12.57999992370605</v>
       </c>
       <c r="G69">
-        <v>77.910003662109375</v>
+        <v>77.91000366210938</v>
       </c>
       <c r="H69">
         <v>461.24169921875</v>
       </c>
       <c r="I69">
-        <v>3.9339985282297353E-2</v>
+        <v>0.03933998528229735</v>
       </c>
       <c r="J69">
-        <v>-0.15076340935789981</v>
+        <v>-0.1507634093578998</v>
       </c>
       <c r="K69">
-        <v>3.6769919088039019E-2</v>
+        <v>0.03676991908803902</v>
       </c>
       <c r="L69">
         <v>-0.2004387466681592</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>45450</v>
       </c>
       <c r="B70">
-        <v>20.420000000000002</v>
+        <v>20.42</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3088,25 +3059,25 @@
         <v>12.22000026702881</v>
       </c>
       <c r="G70">
-        <v>76.650001525878906</v>
+        <v>76.65000152587891</v>
       </c>
       <c r="H70">
-        <v>460.83358764648438</v>
+        <v>460.8335876464844</v>
       </c>
       <c r="I70">
-        <v>4.68058024904194E-2</v>
+        <v>0.0468058024904194</v>
       </c>
       <c r="J70">
-        <v>-0.13651228169225349</v>
+        <v>-0.1365122816922535</v>
       </c>
       <c r="K70">
-        <v>4.0177892165596051E-2</v>
+        <v>0.04017789216559605</v>
       </c>
       <c r="L70">
         <v>-0.1924284274948353</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>45453</v>
       </c>
@@ -3123,33 +3094,33 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>12.739999771118161</v>
+        <v>12.73999977111816</v>
       </c>
       <c r="G71">
-        <v>78.970001220703125</v>
+        <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.69500732421881</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
-        <v>7.1300227590356022E-2</v>
+        <v>0.07130022759035602</v>
       </c>
       <c r="J71">
         <v>-0.1099900394046935</v>
       </c>
       <c r="K71">
-        <v>4.8651163233889648E-2</v>
+        <v>0.04865116323388965</v>
       </c>
       <c r="L71">
-        <v>-0.17932689314497061</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.1793268931449706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>45454</v>
       </c>
       <c r="B72">
-        <v>20.440000000000001</v>
+        <v>20.44</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3164,25 +3135,25 @@
         <v>12.85000038146973</v>
       </c>
       <c r="G72">
-        <v>79.949996948242188</v>
+        <v>79.94999694824219</v>
       </c>
       <c r="H72">
-        <v>465.87033081054688</v>
+        <v>465.8703308105469</v>
       </c>
       <c r="I72">
-        <v>5.6689550959844993E-2</v>
+        <v>0.05668955095984499</v>
       </c>
       <c r="J72">
         <v>-0.1375571101230938</v>
       </c>
       <c r="K72">
-        <v>4.8335282038454337E-2</v>
+        <v>0.04833528203845434</v>
       </c>
       <c r="L72">
-        <v>-0.17620381276423541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.1762038127642354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>45455</v>
       </c>
@@ -3199,33 +3170,33 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>12.039999961853029</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="G73">
-        <v>77.599998474121094</v>
+        <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
-        <v>-6.1296641283393648E-2</v>
+        <v>-0.06129664128339365</v>
       </c>
       <c r="J73">
-        <v>-0.25822215806650428</v>
+        <v>-0.2582221580665043</v>
       </c>
       <c r="K73">
-        <v>-1.0713811051099399E-2</v>
+        <v>-0.0107138110510994</v>
       </c>
       <c r="L73">
         <v>-0.236513391280016</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>45456</v>
       </c>
       <c r="B74">
-        <v>20.420000000000002</v>
+        <v>20.42</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3237,28 +3208,28 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>11.939999580383301</v>
+        <v>11.9399995803833</v>
       </c>
       <c r="G74">
-        <v>78.199996948242188</v>
+        <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.53036499023438</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
-        <v>-4.9146714730771111E-2</v>
+        <v>-0.04914671473077111</v>
       </c>
       <c r="J74">
-        <v>-0.26895522261822102</v>
+        <v>-0.268955222618221</v>
       </c>
       <c r="K74">
-        <v>-4.6910627324739038E-3</v>
+        <v>-0.004691062732473904</v>
       </c>
       <c r="L74">
         <v>-0.2392937152364879</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>45457</v>
       </c>
@@ -3275,33 +3246,33 @@
         <v>0.68</v>
       </c>
       <c r="F75">
-        <v>12.659999847412109</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="G75">
-        <v>83.720001220703125</v>
+        <v>83.72000122070312</v>
       </c>
       <c r="H75">
-        <v>476.98904418945313</v>
+        <v>476.9890441894531</v>
       </c>
       <c r="I75">
-        <v>-0.41535189226546632</v>
+        <v>-0.4153518922654663</v>
       </c>
       <c r="J75">
-        <v>-0.60233892566567449</v>
+        <v>-0.6023389256656745</v>
       </c>
       <c r="K75">
-        <v>-0.41090587913105447</v>
+        <v>-0.4109058791310545</v>
       </c>
       <c r="L75">
-        <v>-0.60685018823998271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6068501882399827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>45460</v>
       </c>
       <c r="B76">
-        <v>19.670000000000002</v>
+        <v>19.67</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3316,25 +3287,25 @@
         <v>12.75</v>
       </c>
       <c r="G76">
-        <v>83.339996337890625</v>
+        <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.83209228515619</v>
+        <v>482.8320617675781</v>
       </c>
       <c r="I76">
-        <v>-0.41155995556332631</v>
+        <v>-0.4115599555633263</v>
       </c>
       <c r="J76">
-        <v>-0.60564193212622663</v>
+        <v>-0.6056419321262266</v>
       </c>
       <c r="K76">
-        <v>-0.40032285513485172</v>
+        <v>-0.4003228551348517</v>
       </c>
       <c r="L76">
-        <v>-0.60744755413934137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6074475541393414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>45461</v>
       </c>
@@ -3354,30 +3325,30 @@
         <v>12.30000019073486</v>
       </c>
       <c r="G77">
-        <v>80.629997253417969</v>
+        <v>80.62999725341797</v>
       </c>
       <c r="H77">
-        <v>482.98138427734381</v>
+        <v>482.9813842773438</v>
       </c>
       <c r="I77">
-        <v>-0.37046005928590331</v>
+        <v>-0.3704600592859033</v>
       </c>
       <c r="J77">
-        <v>-0.57726297231478585</v>
+        <v>-0.5772629723147858</v>
       </c>
       <c r="K77">
-        <v>-0.37471495335350757</v>
+        <v>-0.3747149533535076</v>
       </c>
       <c r="L77">
-        <v>-0.56706233754259672</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5670623375425967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>45463</v>
       </c>
       <c r="B78">
-        <v>19.579999999999998</v>
+        <v>19.58</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3392,25 +3363,25 @@
         <v>13.27999973297119</v>
       </c>
       <c r="G78">
-        <v>85.720001220703125</v>
+        <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.25857543945313</v>
+        <v>479.2586059570312</v>
       </c>
       <c r="I78">
-        <v>-0.34233110136415268</v>
+        <v>-0.3423311013641527</v>
       </c>
       <c r="J78">
-        <v>-0.53665860575066404</v>
+        <v>-0.536658605750664</v>
       </c>
       <c r="K78">
-        <v>-0.38606646893420032</v>
+        <v>-0.3860664689342003</v>
       </c>
       <c r="L78">
-        <v>-0.56488771509936408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5648877150993641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>45464</v>
       </c>
@@ -3433,22 +3404,22 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
-        <v>-0.33834204967008558</v>
+        <v>-0.3383420496700856</v>
       </c>
       <c r="J79">
-        <v>-0.52935159056704695</v>
+        <v>-0.5293515905670469</v>
       </c>
       <c r="K79">
-        <v>-0.36914778668192932</v>
+        <v>-0.3691477866819293</v>
       </c>
       <c r="L79">
-        <v>-0.52764357364982639</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5276435736498264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>45467</v>
       </c>
@@ -3465,28 +3436,28 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>13.329999923706049</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="G80">
-        <v>84.800003051757813</v>
+        <v>84.80000305175781</v>
       </c>
       <c r="H80">
-        <v>472.53292846679688</v>
+        <v>472.5329284667969</v>
       </c>
       <c r="I80">
-        <v>-0.32806398312342511</v>
+        <v>-0.3280639831234251</v>
       </c>
       <c r="J80">
-        <v>-0.52667103657526004</v>
+        <v>-0.52667103657526</v>
       </c>
       <c r="K80">
-        <v>-0.36548385450764298</v>
+        <v>-0.365483854507643</v>
       </c>
       <c r="L80">
-        <v>-0.53278573405264973</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5327857340526497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>45468</v>
       </c>
@@ -3503,28 +3474,28 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>12.840000152587891</v>
+        <v>12.84000015258789</v>
       </c>
       <c r="G81">
-        <v>82.870002746582031</v>
+        <v>82.87000274658203</v>
       </c>
       <c r="H81">
-        <v>477.93661499023438</v>
+        <v>477.9366149902344</v>
       </c>
       <c r="I81">
         <v>-0.3358522089548111</v>
       </c>
       <c r="J81">
-        <v>-0.50358269854751281</v>
+        <v>-0.5035826985475128</v>
       </c>
       <c r="K81">
-        <v>-0.37865761008247639</v>
+        <v>-0.3786576100824764</v>
       </c>
       <c r="L81">
-        <v>-0.51570548186819243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5157054818681924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>45469</v>
       </c>
@@ -3544,25 +3515,25 @@
         <v>12.55000019073486</v>
       </c>
       <c r="G82">
-        <v>81.449996948242188</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.92361450195313</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
-        <v>-0.25470734631835501</v>
+        <v>-0.254707346318355</v>
       </c>
       <c r="J82">
         <v>-0.4144484667344816</v>
       </c>
       <c r="K82">
-        <v>-0.31284210496838277</v>
+        <v>-0.3128421049683828</v>
       </c>
       <c r="L82">
-        <v>-0.43599099541259462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4359909954125946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>45470</v>
       </c>
@@ -3579,33 +3550,33 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>12.239999771118161</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="G83">
         <v>79.5</v>
       </c>
       <c r="H83">
-        <v>480.15988159179688</v>
+        <v>480.1598815917969</v>
       </c>
       <c r="I83">
-        <v>-0.31518173728570631</v>
+        <v>-0.3151817372857063</v>
       </c>
       <c r="J83">
-        <v>-0.45596129200253782</v>
+        <v>-0.4559612920025378</v>
       </c>
       <c r="K83">
         <v>-0.3138713175344322</v>
       </c>
       <c r="L83">
-        <v>-0.43100864532369948</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4310086453236995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>45471</v>
       </c>
       <c r="B84">
-        <v>19.510000000000002</v>
+        <v>19.51</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3617,33 +3588,33 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>12.439999580383301</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="G84">
-        <v>79.480003356933594</v>
+        <v>79.48000335693359</v>
       </c>
       <c r="H84">
-        <v>477.66741943359381</v>
+        <v>477.6674194335938</v>
       </c>
       <c r="I84">
-        <v>-0.33182958960852682</v>
+        <v>-0.3318295896085268</v>
       </c>
       <c r="J84">
-        <v>-0.44549800847423432</v>
+        <v>-0.4454980084742343</v>
       </c>
       <c r="K84">
-        <v>-0.41048366804368369</v>
+        <v>-0.4104836680436837</v>
       </c>
       <c r="L84">
-        <v>-0.44193998568044562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4419399856804456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>45474</v>
       </c>
       <c r="B85">
-        <v>19.579999999999998</v>
+        <v>19.58</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3658,7 +3629,7 @@
         <v>12.22000026702881</v>
       </c>
       <c r="G85">
-        <v>76.050003051757813</v>
+        <v>76.05000305175781</v>
       </c>
       <c r="H85">
         <v>480.468994140625</v>
@@ -3667,16 +3638,16 @@
         <v>-0.3422204601356334</v>
       </c>
       <c r="J85">
-        <v>-0.45427519196973298</v>
+        <v>-0.454275191969733</v>
       </c>
       <c r="K85">
         <v>-0.3969804643036956</v>
       </c>
       <c r="L85">
-        <v>-0.50502707249953183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5050270724995318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>45475</v>
       </c>
@@ -3699,27 +3670,27 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.51373291015619</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
-        <v>-0.46121633503726389</v>
+        <v>-0.4612163350372639</v>
       </c>
       <c r="J86">
-        <v>-0.50334655233114023</v>
+        <v>-0.5033465523311402</v>
       </c>
       <c r="K86">
-        <v>-0.55876440917378878</v>
+        <v>-0.5587644091737888</v>
       </c>
       <c r="L86">
-        <v>-0.58203928878638878</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5820392887863888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>45476</v>
       </c>
       <c r="B87">
-        <v>19.739999999999998</v>
+        <v>19.74</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3731,28 +3702,28 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>12.090000152587891</v>
+        <v>12.09000015258789</v>
       </c>
       <c r="G87">
-        <v>78.069999694824219</v>
+        <v>78.06999969482422</v>
       </c>
       <c r="H87">
         <v>489.5615234375</v>
       </c>
       <c r="I87">
-        <v>-0.47524051594700623</v>
+        <v>-0.4752405159470062</v>
       </c>
       <c r="J87">
-        <v>-0.50170506011564309</v>
+        <v>-0.5017050601156431</v>
       </c>
       <c r="K87">
-        <v>-0.55992659911585174</v>
+        <v>-0.5599265991158517</v>
       </c>
       <c r="L87">
-        <v>-0.56291790350845994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5629179035084599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>45478</v>
       </c>
@@ -3772,25 +3743,25 @@
         <v>12.47999954223633</v>
       </c>
       <c r="G88">
-        <v>78.800003051757813</v>
+        <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.66607666015619</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
       </c>
       <c r="J88">
-        <v>-0.48106974293018351</v>
+        <v>-0.4810697429301835</v>
       </c>
       <c r="K88">
-        <v>-0.51194923590741825</v>
+        <v>-0.5119492359074183</v>
       </c>
       <c r="L88">
-        <v>-0.55759869695847031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5575986969584703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>45481</v>
       </c>
@@ -3810,25 +3781,25 @@
         <v>12.36999988555908</v>
       </c>
       <c r="G89">
-        <v>78.589996337890625</v>
+        <v>78.58999633789062</v>
       </c>
       <c r="H89">
         <v>495.842529296875</v>
       </c>
       <c r="I89">
-        <v>-0.39571318639609337</v>
+        <v>-0.3957131863960934</v>
       </c>
       <c r="J89">
-        <v>-0.45528443084390091</v>
+        <v>-0.4552844308439009</v>
       </c>
       <c r="K89">
-        <v>-0.47655965564402941</v>
+        <v>-0.4765596556440294</v>
       </c>
       <c r="L89">
-        <v>-0.52810587088890448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5281058708889045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>45482</v>
       </c>
@@ -3845,33 +3816,33 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>12.510000228881839</v>
+        <v>12.51000022888184</v>
       </c>
       <c r="G90">
-        <v>78.580001831054688</v>
+        <v>78.58000183105469</v>
       </c>
       <c r="H90">
         <v>496.271240234375</v>
       </c>
       <c r="I90">
-        <v>-0.39350933413444372</v>
+        <v>-0.3935093341344437</v>
       </c>
       <c r="J90">
-        <v>-0.49766820710347331</v>
+        <v>-0.4976682071034733</v>
       </c>
       <c r="K90">
         <v>-0.4751831923603953</v>
       </c>
       <c r="L90">
-        <v>-0.54872051622677587</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5487205162267759</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>45483</v>
       </c>
       <c r="B91">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3886,25 +3857,25 @@
         <v>12.85000038146973</v>
       </c>
       <c r="G91">
-        <v>83.410003662109375</v>
+        <v>83.41000366210938</v>
       </c>
       <c r="H91">
-        <v>501.44561767578119</v>
+        <v>501.4456176757812</v>
       </c>
       <c r="I91">
         <v>-0.3825692711109614</v>
       </c>
       <c r="J91">
-        <v>-0.40358314257019229</v>
+        <v>-0.4035831425701923</v>
       </c>
       <c r="K91">
-        <v>-0.47213686237973712</v>
+        <v>-0.4721368623797371</v>
       </c>
       <c r="L91">
-        <v>-0.46004352825806633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4600435282580663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>45484</v>
       </c>
@@ -3921,28 +3892,28 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>12.920000076293951</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="G92">
-        <v>84.470001220703125</v>
+        <v>84.47000122070312</v>
       </c>
       <c r="H92">
-        <v>490.44882202148438</v>
+        <v>490.4488220214844</v>
       </c>
       <c r="I92">
-        <v>-0.43190727038875892</v>
+        <v>-0.4319072703887589</v>
       </c>
       <c r="J92">
         <v>-0.4376219926895159</v>
       </c>
       <c r="K92">
-        <v>-0.42457198799381002</v>
+        <v>-0.42457198799381</v>
       </c>
       <c r="L92">
-        <v>-0.42390709986479469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4239070998647947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>45485</v>
       </c>
@@ -3959,28 +3930,28 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>12.460000038146971</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="G93">
-        <v>81.610000610351563</v>
+        <v>81.61000061035156</v>
       </c>
       <c r="H93">
-        <v>493.33013916015619</v>
+        <v>493.3301391601562</v>
       </c>
       <c r="I93">
-        <v>-0.44475731097688759</v>
+        <v>-0.4447573109768876</v>
       </c>
       <c r="J93">
-        <v>-0.45029437622074991</v>
+        <v>-0.4502943762207499</v>
       </c>
       <c r="K93">
-        <v>-0.43447978835901507</v>
+        <v>-0.4344797883590151</v>
       </c>
       <c r="L93">
         <v>-0.4346707180163229</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>45488</v>
       </c>
@@ -4000,25 +3971,25 @@
         <v>13.11999988555908</v>
       </c>
       <c r="G94">
-        <v>83.860000610351563</v>
+        <v>83.86000061035156</v>
       </c>
       <c r="H94">
         <v>494.6561279296875</v>
       </c>
       <c r="I94">
-        <v>-0.28013293469004352</v>
+        <v>-0.2801329346900435</v>
       </c>
       <c r="J94">
-        <v>-0.36310061453098402</v>
+        <v>-0.363100614530984</v>
       </c>
       <c r="K94">
-        <v>-0.38351691333628868</v>
+        <v>-0.3835169133362887</v>
       </c>
       <c r="L94">
-        <v>-0.40765292869094449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4076529286909445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>45489</v>
       </c>
@@ -4035,28 +4006,28 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>13.189999580383301</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="G95">
-        <v>82.400001525878906</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="H95">
-        <v>494.84555053710938</v>
+        <v>494.8455505371094</v>
       </c>
       <c r="I95">
-        <v>-0.30263878259097787</v>
+        <v>-0.3026387825909779</v>
       </c>
       <c r="J95">
-        <v>-0.35917760053980219</v>
+        <v>-0.3591776005398022</v>
       </c>
       <c r="K95">
-        <v>-0.38151449027579037</v>
+        <v>-0.3815144902757904</v>
       </c>
       <c r="L95">
-        <v>-0.39230640397338967</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3923064039733897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>45490</v>
       </c>
@@ -4076,25 +4047,25 @@
         <v>14.47999954223633</v>
       </c>
       <c r="G96">
-        <v>88.279998779296875</v>
+        <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.31939697265619</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
       </c>
       <c r="J96">
-        <v>-0.38552795979067139</v>
+        <v>-0.3855279597906714</v>
       </c>
       <c r="K96">
-        <v>-0.56965786722775957</v>
+        <v>-0.5696578672277596</v>
       </c>
       <c r="L96">
-        <v>-0.47909841228940658</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4790984122894066</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>45491</v>
       </c>
@@ -4111,33 +4082,33 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>15.930000305175779</v>
+        <v>15.93000030517578</v>
       </c>
       <c r="G97">
-        <v>94.709999084472656</v>
+        <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.04629516601563</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
-        <v>-0.51638597391955077</v>
+        <v>-0.5163859739195508</v>
       </c>
       <c r="J97">
-        <v>-0.42901472926188972</v>
+        <v>-0.4290147292618897</v>
       </c>
       <c r="K97">
-        <v>-0.50134877946346434</v>
+        <v>-0.5013487794634643</v>
       </c>
       <c r="L97">
-        <v>-0.43230984478516521</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4323098447851652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>45492</v>
       </c>
       <c r="B98">
-        <v>18.989999999999998</v>
+        <v>18.99</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4149,33 +4120,33 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>16.520000457763668</v>
+        <v>16.52000045776367</v>
       </c>
       <c r="G98">
-        <v>97.930000305175781</v>
+        <v>97.93000030517578</v>
       </c>
       <c r="H98">
-        <v>473.80905151367188</v>
+        <v>473.8090515136719</v>
       </c>
       <c r="I98">
-        <v>-0.54742017776429519</v>
+        <v>-0.5474201777642952</v>
       </c>
       <c r="J98">
-        <v>-0.45172784872234178</v>
+        <v>-0.4517278487223418</v>
       </c>
       <c r="K98">
-        <v>-0.53258959820686791</v>
+        <v>-0.5325895982068679</v>
       </c>
       <c r="L98">
-        <v>-0.46314354237371891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4631435423737189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>45495</v>
       </c>
       <c r="B99">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4187,39 +4158,39 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>14.909999847412109</v>
+        <v>14.90999984741211</v>
       </c>
       <c r="G99">
-        <v>93.660003662109375</v>
+        <v>93.66000366210938</v>
       </c>
       <c r="H99">
-        <v>480.86776733398438</v>
+        <v>480.8677673339844</v>
       </c>
       <c r="I99">
-        <v>-0.63312216659450737</v>
+        <v>-0.6331221665945074</v>
       </c>
       <c r="J99">
-        <v>-0.54227929585982992</v>
+        <v>-0.5422792958598299</v>
       </c>
       <c r="K99">
         <v>-0.6094205376875419</v>
       </c>
       <c r="L99">
-        <v>-0.53392125231121945</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5339212523112195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>45496</v>
       </c>
       <c r="B100">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>20.190000000000001</v>
+        <v>20.19</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4228,36 +4199,36 @@
         <v>14.72000026702881</v>
       </c>
       <c r="G100">
-        <v>88.510002136230469</v>
+        <v>88.51000213623047</v>
       </c>
       <c r="H100">
-        <v>479.17288208007813</v>
+        <v>479.1728820800781</v>
       </c>
       <c r="I100">
-        <v>-0.62347315081212518</v>
+        <v>-0.6234731508121252</v>
       </c>
       <c r="J100">
-        <v>-0.49042315604667319</v>
+        <v>-0.4904231560466732</v>
       </c>
       <c r="K100">
         <v>-0.609590271900462</v>
       </c>
       <c r="L100">
-        <v>-0.51395832534274599</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.513958325342746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>45497</v>
       </c>
       <c r="B101">
-        <v>18.489999999999998</v>
+        <v>18.49</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>19.260000000000002</v>
+        <v>19.26</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4269,27 +4240,27 @@
         <v>106.120002746582</v>
       </c>
       <c r="H101">
-        <v>461.98480224609381</v>
+        <v>461.9848022460938</v>
       </c>
       <c r="I101">
-        <v>-0.73375178462889989</v>
+        <v>-0.7337517846288999</v>
       </c>
       <c r="J101">
-        <v>-0.64996957446935599</v>
+        <v>-0.649969574469356</v>
       </c>
       <c r="K101">
-        <v>-0.72787259239223967</v>
+        <v>-0.7278725923922397</v>
       </c>
       <c r="L101">
-        <v>-0.67002485119313759</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6700248511931376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>45498</v>
       </c>
       <c r="B102">
-        <v>18.329999999999998</v>
+        <v>18.33</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4307,60 +4278,60 @@
         <v>104.379997253418</v>
       </c>
       <c r="H102">
-        <v>456.89016723632813</v>
+        <v>456.8901672363281</v>
       </c>
       <c r="I102">
-        <v>-0.72085425615024679</v>
+        <v>-0.7208542561502468</v>
       </c>
       <c r="J102">
-        <v>-0.62399272264920325</v>
+        <v>-0.6239927226492032</v>
       </c>
       <c r="K102">
-        <v>-0.71438874802778307</v>
+        <v>-0.7143887480277831</v>
       </c>
       <c r="L102">
-        <v>-0.64273390857684609</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6427339085768461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>45499</v>
       </c>
       <c r="B103">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>16.389999389648441</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="G103">
-        <v>94.610000610351563</v>
+        <v>94.61000061035156</v>
       </c>
       <c r="H103">
         <v>461.5760498046875</v>
       </c>
       <c r="I103">
-        <v>-0.74744912368387173</v>
+        <v>-0.7474491236838717</v>
       </c>
       <c r="J103">
         <v>-0.6591108871927529</v>
       </c>
       <c r="K103">
-        <v>-0.70710346986120853</v>
+        <v>-0.7071034698612085</v>
       </c>
       <c r="L103">
-        <v>-0.64559842541620605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.645598425416206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>45502</v>
       </c>
@@ -4371,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4380,30 +4351,30 @@
         <v>16.60000038146973</v>
       </c>
       <c r="G104">
-        <v>93.510002136230469</v>
+        <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.50323486328119</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
-        <v>-0.74208142612331751</v>
+        <v>-0.7420814261233175</v>
       </c>
       <c r="J104">
-        <v>-0.65495175808469452</v>
+        <v>-0.6549517580846945</v>
       </c>
       <c r="K104">
         <v>-0.703202890539812</v>
       </c>
       <c r="L104">
-        <v>-0.64659754379903089</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6465975437990309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>45503</v>
       </c>
       <c r="B105">
-        <v>18.510000000000002</v>
+        <v>18.51</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4415,28 +4386,28 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>17.690000534057621</v>
+        <v>17.69000053405762</v>
       </c>
       <c r="G105">
-        <v>99.970001220703125</v>
+        <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.15240478515619</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
-        <v>-0.74417864637175868</v>
+        <v>-0.7441786463717587</v>
       </c>
       <c r="J105">
-        <v>-0.65741731650986057</v>
+        <v>-0.6574173165098606</v>
       </c>
       <c r="K105">
-        <v>-0.70768836587068251</v>
+        <v>-0.7076883658706825</v>
       </c>
       <c r="L105">
-        <v>-0.65298215377637969</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6529821537763797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="2">
         <v>45504</v>
       </c>
@@ -4447,34 +4418,34 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>19.690000000000001</v>
+        <v>19.69</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>16.360000610351559</v>
+        <v>16.36000061035156</v>
       </c>
       <c r="G106">
         <v>94.25</v>
       </c>
       <c r="H106">
-        <v>469.65164184570313</v>
+        <v>469.6516418457031</v>
       </c>
       <c r="I106">
-        <v>-0.76217579686584291</v>
+        <v>-0.7621757968658429</v>
       </c>
       <c r="J106">
-        <v>-0.67952767193847741</v>
+        <v>-0.6795276719384774</v>
       </c>
       <c r="K106">
         <v>-0.7325047382349803</v>
       </c>
       <c r="L106">
-        <v>-0.66627358295669104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.666273582956691</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>45505</v>
       </c>
@@ -4491,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>18.590000152587891</v>
+        <v>18.59000015258789</v>
       </c>
       <c r="G107">
         <v>111.1800003051758</v>
@@ -4500,19 +4471,19 @@
         <v>458.2760009765625</v>
       </c>
       <c r="I107">
-        <v>-0.79034155184433652</v>
+        <v>-0.7903415518443365</v>
       </c>
       <c r="J107">
-        <v>-0.74375921710509985</v>
+        <v>-0.7437592171050998</v>
       </c>
       <c r="K107">
-        <v>-0.71344138787481826</v>
+        <v>-0.7134413878748183</v>
       </c>
       <c r="L107">
-        <v>-0.61966577247385612</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6196657724738561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>45506</v>
       </c>
@@ -4529,28 +4500,28 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>23.389999389648441</v>
+        <v>23.38999938964844</v>
       </c>
       <c r="G108">
-        <v>136.80999755859381</v>
+        <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.39883422851563</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
-        <v>-0.78033731683599195</v>
+        <v>-0.7803373168359919</v>
       </c>
       <c r="J108">
-        <v>-0.74778663150229019</v>
+        <v>-0.7477866315022902</v>
       </c>
       <c r="K108">
         <v>-0.6983414085965457</v>
       </c>
       <c r="L108">
-        <v>-0.62778810419715769</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6277881041971577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="2">
         <v>45509</v>
       </c>
@@ -4561,34 +4532,34 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>38.569999694824219</v>
+        <v>38.56999969482422</v>
       </c>
       <c r="G109">
-        <v>173.32000732421881</v>
+        <v>173.3200073242188</v>
       </c>
       <c r="H109">
-        <v>434.05914306640619</v>
+        <v>434.0591430664062</v>
       </c>
       <c r="I109">
-        <v>-0.73904669976057935</v>
+        <v>-0.7390466997605794</v>
       </c>
       <c r="J109">
-        <v>-0.79474389890688457</v>
+        <v>-0.7947438989068846</v>
       </c>
       <c r="K109">
-        <v>-0.66413138978487585</v>
+        <v>-0.6641313897848758</v>
       </c>
       <c r="L109">
-        <v>-0.68478590710180065</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6847859071018007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="2">
         <v>45510</v>
       </c>
@@ -4599,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4611,22 +4582,22 @@
         <v>150.0899963378906</v>
       </c>
       <c r="H110">
-        <v>438.20660400390619</v>
+        <v>438.2066040039062</v>
       </c>
       <c r="I110">
-        <v>-0.76768713094455843</v>
+        <v>-0.7676871309445584</v>
       </c>
       <c r="J110">
-        <v>-0.81614866508980799</v>
+        <v>-0.816148665089808</v>
       </c>
       <c r="K110">
         <v>-0.6949301783366898</v>
       </c>
       <c r="L110">
-        <v>-0.71281610805203355</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7128161080520335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="2">
         <v>45511</v>
       </c>
@@ -4646,25 +4617,25 @@
         <v>27.85000038146973</v>
       </c>
       <c r="G111">
-        <v>151.24000549316409</v>
+        <v>151.2400054931641</v>
       </c>
       <c r="H111">
-        <v>433.46090698242188</v>
+        <v>433.4609069824219</v>
       </c>
       <c r="I111">
         <v>-0.758806286971202</v>
       </c>
       <c r="J111">
-        <v>-0.80667477155694478</v>
+        <v>-0.8066747715569448</v>
       </c>
       <c r="K111">
-        <v>-0.68963549137737956</v>
+        <v>-0.6896354913773796</v>
       </c>
       <c r="L111">
         <v>-0.7061096805823327</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="2">
         <v>45512</v>
       </c>
@@ -4687,22 +4658,22 @@
         <v>134.3399963378906</v>
       </c>
       <c r="H112">
-        <v>446.72091674804688</v>
+        <v>446.7209167480469</v>
       </c>
       <c r="I112">
         <v>-0.7723770781809578</v>
       </c>
       <c r="J112">
-        <v>-0.83865236555713873</v>
+        <v>-0.8386523655571387</v>
       </c>
       <c r="K112">
-        <v>-0.71387033716302195</v>
+        <v>-0.713870337163022</v>
       </c>
       <c r="L112">
-        <v>-0.74845563818118876</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7484556381811888</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="2">
         <v>45513</v>
       </c>
@@ -4719,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>20.370000839233398</v>
+        <v>20.3700008392334</v>
       </c>
       <c r="G113">
         <v>114.629997253418</v>
@@ -4728,19 +4699,19 @@
         <v>449.0538330078125</v>
       </c>
       <c r="I113">
-        <v>-0.77538576625947808</v>
+        <v>-0.7753857662594781</v>
       </c>
       <c r="J113">
-        <v>-0.82625244995783076</v>
+        <v>-0.8262524499578308</v>
       </c>
       <c r="K113">
-        <v>-0.74815761643020084</v>
+        <v>-0.7481576164302008</v>
       </c>
       <c r="L113">
-        <v>-0.77096860346789942</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7709686034678994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="2">
         <v>45516</v>
       </c>
@@ -4760,25 +4731,25 @@
         <v>20.70999908447266</v>
       </c>
       <c r="G114">
-        <v>121.94000244140619</v>
+        <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.02090454101563</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
-        <v>-0.77357668770666332</v>
+        <v>-0.7735766877066633</v>
       </c>
       <c r="J114">
-        <v>-0.81791905801694254</v>
+        <v>-0.8179190580169425</v>
       </c>
       <c r="K114">
-        <v>-0.74491339803196865</v>
+        <v>-0.7449133980319687</v>
       </c>
       <c r="L114">
-        <v>-0.75559483441947639</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7555948344194764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="2">
         <v>45517</v>
       </c>
@@ -4795,28 +4766,28 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>18.120000839233398</v>
+        <v>18.1200008392334</v>
       </c>
       <c r="G115">
-        <v>113.88999938964839</v>
+        <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.18716430664063</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
-        <v>-0.79784843669234984</v>
+        <v>-0.7978484366923498</v>
       </c>
       <c r="J115">
-        <v>-0.83697006400175844</v>
+        <v>-0.8369700640017584</v>
       </c>
       <c r="K115">
-        <v>-0.75812915616009979</v>
+        <v>-0.7581291561600998</v>
       </c>
       <c r="L115">
-        <v>-0.76585827361377379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7658582736137738</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="2">
         <v>45518</v>
       </c>
@@ -4833,33 +4804,33 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>16.190000534057621</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="G116">
-        <v>107.80999755859381</v>
+        <v>107.8099975585938</v>
       </c>
       <c r="H116">
-        <v>461.33676147460938</v>
+        <v>461.3367614746094</v>
       </c>
       <c r="I116">
-        <v>-0.79420977349997945</v>
+        <v>-0.7942097734999795</v>
       </c>
       <c r="J116">
-        <v>-0.83427443498233411</v>
+        <v>-0.8342744349823341</v>
       </c>
       <c r="K116">
-        <v>-0.75145454226414565</v>
+        <v>-0.7514545422641457</v>
       </c>
       <c r="L116">
-        <v>-0.76200285666186096</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.762002856661861</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="2">
         <v>45519</v>
       </c>
       <c r="B117">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="C117">
         <v>0.59</v>
@@ -4868,7 +4839,7 @@
         <v>18.87</v>
       </c>
       <c r="E117">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="F117">
         <v>15.22999954223633</v>
@@ -4877,22 +4848,22 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
-        <v>-0.79589421030373952</v>
+        <v>-0.7958942103037395</v>
       </c>
       <c r="J117">
-        <v>-0.84035394432232391</v>
+        <v>-0.8403539443223239</v>
       </c>
       <c r="K117">
-        <v>-0.78626912700184293</v>
+        <v>-0.7862691270018429</v>
       </c>
       <c r="L117">
-        <v>-0.79723229304074072</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7972322930407407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>45520</v>
       </c>
@@ -4915,22 +4886,22 @@
         <v>103.4199981689453</v>
       </c>
       <c r="H118">
-        <v>473.59970092773438</v>
+        <v>473.5997009277344</v>
       </c>
       <c r="I118">
-        <v>-0.79146484573429365</v>
+        <v>-0.7914648457342937</v>
       </c>
       <c r="J118">
-        <v>-0.83652964059249502</v>
+        <v>-0.836529640592495</v>
       </c>
       <c r="K118">
         <v>-0.791795654043846</v>
       </c>
       <c r="L118">
-        <v>-0.80446301816453902</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.804463018164539</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>45523</v>
       </c>
@@ -4941,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4950,25 +4921,25 @@
         <v>14.64999961853027</v>
       </c>
       <c r="G119">
-        <v>98.819999694824219</v>
+        <v>98.81999969482422</v>
       </c>
       <c r="H119">
         <v>479.8209228515625</v>
       </c>
       <c r="I119">
-        <v>-0.79287569808695779</v>
+        <v>-0.7928756980869578</v>
       </c>
       <c r="J119">
-        <v>-0.84281688580717706</v>
+        <v>-0.8428168858071771</v>
       </c>
       <c r="K119">
-        <v>-0.78926767949609633</v>
+        <v>-0.7892676794960963</v>
       </c>
       <c r="L119">
         <v>-0.8067439088577395</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>45524</v>
       </c>
@@ -4997,16 +4968,16 @@
         <v>-0.7845512071656815</v>
       </c>
       <c r="J120">
-        <v>-0.84131830499191063</v>
+        <v>-0.8413183049919106</v>
       </c>
       <c r="K120">
-        <v>-0.78124394730109803</v>
+        <v>-0.781243947301098</v>
       </c>
       <c r="L120">
-        <v>-0.80775260908190749</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.8077526090819075</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>45525</v>
       </c>
@@ -5023,28 +4994,28 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>16.270000457763668</v>
+        <v>16.27000045776367</v>
       </c>
       <c r="G121">
         <v>106.7200012207031</v>
       </c>
       <c r="H121">
-        <v>481.04721069335938</v>
+        <v>481.0472106933594</v>
       </c>
       <c r="I121">
-        <v>-0.77931294071253188</v>
+        <v>-0.7793129407125319</v>
       </c>
       <c r="J121">
-        <v>-0.83433154575637503</v>
+        <v>-0.834331545756375</v>
       </c>
       <c r="K121">
-        <v>-0.77809316594857592</v>
+        <v>-0.7780931659485759</v>
       </c>
       <c r="L121">
-        <v>-0.80203659685516415</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.8020365968551642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>45526</v>
       </c>
@@ -5067,22 +5038,22 @@
         <v>112.5299987792969</v>
       </c>
       <c r="H122">
-        <v>473.42025756835938</v>
+        <v>473.4202575683594</v>
       </c>
       <c r="I122">
-        <v>-0.76151946307322993</v>
+        <v>-0.7615194630732299</v>
       </c>
       <c r="J122">
-        <v>-0.80739430284301805</v>
+        <v>-0.8073943028430181</v>
       </c>
       <c r="K122">
-        <v>-0.77478887175971134</v>
+        <v>-0.7747888717597113</v>
       </c>
       <c r="L122">
         <v>-0.7681417111801524</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>45527</v>
       </c>
@@ -5102,30 +5073,30 @@
         <v>15.85999965667725</v>
       </c>
       <c r="G123">
-        <v>99.220001220703125</v>
+        <v>99.22000122070312</v>
       </c>
       <c r="H123">
-        <v>478.55474853515619</v>
+        <v>478.5547485351562</v>
       </c>
       <c r="I123">
-        <v>-0.76695258508534736</v>
+        <v>-0.7669525850853474</v>
       </c>
       <c r="J123">
-        <v>-0.81560969485535584</v>
+        <v>-0.8156096948553558</v>
       </c>
       <c r="K123">
-        <v>-0.78493273519084317</v>
+        <v>-0.7849327351908432</v>
       </c>
       <c r="L123">
-        <v>-0.79011094757425049</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7901109475742505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>45530</v>
       </c>
       <c r="B124">
-        <v>17.920000000000002</v>
+        <v>17.92</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5143,27 +5114,27 @@
         <v>100.6800003051758</v>
       </c>
       <c r="H124">
-        <v>473.90878295898438</v>
+        <v>473.9087829589844</v>
       </c>
       <c r="I124">
-        <v>-0.75973659476004807</v>
+        <v>-0.7597365947600481</v>
       </c>
       <c r="J124">
-        <v>-0.80720025640165161</v>
+        <v>-0.8072002564016516</v>
       </c>
       <c r="K124">
-        <v>-0.77927727219511711</v>
+        <v>-0.7792772721951171</v>
       </c>
       <c r="L124">
-        <v>-0.78498699907719993</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7849869990771999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="2">
         <v>45531</v>
       </c>
       <c r="B125">
-        <v>17.850000000000001</v>
+        <v>17.85</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5175,19 +5146,19 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>15.430000305175779</v>
+        <v>15.43000030517578</v>
       </c>
       <c r="G125">
-        <v>93.449996948242188</v>
+        <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.32449340820313</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
-        <v>-0.75655212425296114</v>
+        <v>-0.7565521242529611</v>
       </c>
       <c r="J125">
-        <v>-0.79256108752583565</v>
+        <v>-0.7925610875258357</v>
       </c>
       <c r="K125">
         <v>-0.7789152260065012</v>
@@ -5196,7 +5167,7 @@
         <v>-0.7731670319474605</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="2">
         <v>45532</v>
       </c>
@@ -5207,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>18.850000000000001</v>
+        <v>18.85</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>17.110000610351559</v>
+        <v>17.11000061035156</v>
       </c>
       <c r="G126">
         <v>106.3199996948242</v>
@@ -5222,24 +5193,24 @@
         <v>469.9307861328125</v>
       </c>
       <c r="I126">
-        <v>-0.75996648437067471</v>
+        <v>-0.7599664843706747</v>
       </c>
       <c r="J126">
         <v>-0.7992958899944983</v>
       </c>
       <c r="K126">
-        <v>-0.78211035401925433</v>
+        <v>-0.7821103540192543</v>
       </c>
       <c r="L126">
-        <v>-0.76680834571269352</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7668083457126935</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="2">
         <v>45533</v>
       </c>
       <c r="B127">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5254,30 +5225,30 @@
         <v>15.64999961853027</v>
       </c>
       <c r="G127">
-        <v>97.080001831054688</v>
+        <v>97.08000183105469</v>
       </c>
       <c r="H127">
-        <v>469.24288940429688</v>
+        <v>469.2428894042969</v>
       </c>
       <c r="I127">
-        <v>-0.76033786147288274</v>
+        <v>-0.7603378614728827</v>
       </c>
       <c r="J127">
-        <v>-0.79314035675038697</v>
+        <v>-0.793140356750387</v>
       </c>
       <c r="K127">
-        <v>-0.80924280316664343</v>
+        <v>-0.8092428031666434</v>
       </c>
       <c r="L127">
-        <v>-0.77998319701981655</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7799831970198166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="2">
         <v>45534</v>
       </c>
       <c r="B128">
-        <v>17.739999999999998</v>
+        <v>17.74</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -5292,25 +5263,25 @@
         <v>15</v>
       </c>
       <c r="G128">
-        <v>93.730003356933594</v>
+        <v>93.73000335693359</v>
       </c>
       <c r="H128">
-        <v>474.83596801757813</v>
+        <v>474.8359680175781</v>
       </c>
       <c r="I128">
-        <v>-0.76728137850949441</v>
+        <v>-0.7672813785094944</v>
       </c>
       <c r="J128">
-        <v>-0.76476606592647578</v>
+        <v>-0.7647660659264758</v>
       </c>
       <c r="K128">
-        <v>-0.80035170883851847</v>
+        <v>-0.8003517088385185</v>
       </c>
       <c r="L128">
-        <v>-0.78365657992045545</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7836565799204555</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>45538</v>
       </c>
@@ -5327,28 +5298,28 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>20.719999313354489</v>
+        <v>20.71999931335449</v>
       </c>
       <c r="G129">
-        <v>129.78999328613281</v>
+        <v>129.7899932861328</v>
       </c>
       <c r="H129">
-        <v>460.41952514648438</v>
+        <v>460.4195251464844</v>
       </c>
       <c r="I129">
-        <v>-0.77974541676810594</v>
+        <v>-0.7797454167681059</v>
       </c>
       <c r="J129">
-        <v>-0.75211264351292606</v>
+        <v>-0.7521126435129261</v>
       </c>
       <c r="K129">
-        <v>-0.80769701194700771</v>
+        <v>-0.8076970119470077</v>
       </c>
       <c r="L129">
-        <v>-0.75919741544395236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.7591974154439524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="2">
         <v>45539</v>
       </c>
@@ -5365,28 +5336,28 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>21.319999694824219</v>
+        <v>21.31999969482422</v>
       </c>
       <c r="G130">
         <v>123.4700012207031</v>
       </c>
       <c r="H130">
-        <v>459.22311401367188</v>
+        <v>459.2231140136719</v>
       </c>
       <c r="I130">
-        <v>-0.70219911217057362</v>
+        <v>-0.7021991121705736</v>
       </c>
       <c r="J130">
-        <v>-0.67692221338929448</v>
+        <v>-0.6769222133892945</v>
       </c>
       <c r="K130">
-        <v>-0.70485018553282863</v>
+        <v>-0.7048501855328286</v>
       </c>
       <c r="L130">
-        <v>-0.67656092803394108</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6765609280339411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="2">
         <v>45540</v>
       </c>
@@ -5409,22 +5380,22 @@
         <v>115.0100021362305</v>
       </c>
       <c r="H131">
-        <v>459.65182495117188</v>
+        <v>459.6518249511719</v>
       </c>
       <c r="I131">
-        <v>-0.65500186031143726</v>
+        <v>-0.6550018603114373</v>
       </c>
       <c r="J131">
-        <v>-0.64289978105932499</v>
+        <v>-0.642899781059325</v>
       </c>
       <c r="K131">
-        <v>-0.66220587748121129</v>
+        <v>-0.6622058774812113</v>
       </c>
       <c r="L131">
-        <v>-0.65604751893240654</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6560475189324065</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="2">
         <v>45541</v>
       </c>
@@ -5441,28 +5412,28 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>22.379999160766602</v>
+        <v>22.3799991607666</v>
       </c>
       <c r="G132">
         <v>119.3300018310547</v>
       </c>
       <c r="H132">
-        <v>447.33901977539063</v>
+        <v>447.3390197753906</v>
       </c>
       <c r="I132">
-        <v>-0.68721991139859007</v>
+        <v>-0.6872199113985901</v>
       </c>
       <c r="J132">
-        <v>-0.62642293882435984</v>
+        <v>-0.6264229388243598</v>
       </c>
       <c r="K132">
-        <v>-0.68899730285536054</v>
+        <v>-0.6889973028553605</v>
       </c>
       <c r="L132">
-        <v>-0.62160402098346279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6216040209834628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="2">
         <v>45544</v>
       </c>
@@ -5482,30 +5453,30 @@
         <v>19.45000076293945</v>
       </c>
       <c r="G133">
-        <v>110.84999847412109</v>
+        <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.09164428710938</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
-        <v>-0.68791333556890955</v>
+        <v>-0.6879133355689095</v>
       </c>
       <c r="J133">
-        <v>-0.62016691230527066</v>
+        <v>-0.6201669123052707</v>
       </c>
       <c r="K133">
-        <v>-0.67606785639530453</v>
+        <v>-0.6760678563953045</v>
       </c>
       <c r="L133">
-        <v>-0.60767004016713355</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6076700401671336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="2">
         <v>45545</v>
       </c>
       <c r="B134">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -5517,33 +5488,33 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>19.079999923706051</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="G134">
         <v>107.1999969482422</v>
       </c>
       <c r="H134">
-        <v>457.27902221679688</v>
+        <v>457.2790222167969</v>
       </c>
       <c r="I134">
-        <v>-0.68103892261857668</v>
+        <v>-0.6810389226185767</v>
       </c>
       <c r="J134">
-        <v>-0.61599211439779833</v>
+        <v>-0.6159921143977983</v>
       </c>
       <c r="K134">
-        <v>-0.65952809818642621</v>
+        <v>-0.6595280981864262</v>
       </c>
       <c r="L134">
-        <v>-0.59326161876041239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5932616187604124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="2">
         <v>45546</v>
       </c>
       <c r="B135">
-        <v>17.350000000000001</v>
+        <v>17.35</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -5555,33 +5526,33 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>17.690000534057621</v>
+        <v>17.69000053405762</v>
       </c>
       <c r="G135">
-        <v>102.90000152587891</v>
+        <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.20901489257813</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
-        <v>-0.68929683188009794</v>
+        <v>-0.6892968318800979</v>
       </c>
       <c r="J135">
-        <v>-0.62488006885901515</v>
+        <v>-0.6248800688590151</v>
       </c>
       <c r="K135">
         <v>-0.6732567248898087</v>
       </c>
       <c r="L135">
-        <v>-0.61281660309012242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6128166030901224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="2">
         <v>45547</v>
       </c>
       <c r="B136">
-        <v>17.440000000000001</v>
+        <v>17.44</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5593,66 +5564,66 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>17.069999694824219</v>
+        <v>17.06999969482422</v>
       </c>
       <c r="G136">
-        <v>103.94000244140619</v>
+        <v>103.9400024414062</v>
       </c>
       <c r="H136">
         <v>471.795166015625</v>
       </c>
       <c r="I136">
-        <v>-0.66901070229482329</v>
+        <v>-0.6690107022948233</v>
       </c>
       <c r="J136">
-        <v>-0.61090949337605549</v>
+        <v>-0.6109094933760555</v>
       </c>
       <c r="K136">
-        <v>-0.65055248769617657</v>
+        <v>-0.6505524876961766</v>
       </c>
       <c r="L136">
-        <v>-0.59243459200150406</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5924345920015041</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="2">
         <v>45548</v>
       </c>
       <c r="B137">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>19.079999999999998</v>
+        <v>19.08</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>16.559999465942379</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="G137">
         <v>101.879997253418</v>
       </c>
       <c r="H137">
-        <v>473.90878295898438</v>
+        <v>473.9087829589844</v>
       </c>
       <c r="I137">
-        <v>-0.68383713620261188</v>
+        <v>-0.6838371362026119</v>
       </c>
       <c r="J137">
         <v>-0.6139240864246901</v>
       </c>
       <c r="K137">
-        <v>-0.67560521601860679</v>
+        <v>-0.6756052160186068</v>
       </c>
       <c r="L137">
-        <v>-0.60123500715550127</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6012350071555013</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="2">
         <v>45551</v>
       </c>
@@ -5669,28 +5640,28 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>17.139999389648441</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="G138">
         <v>106.6699981689453</v>
       </c>
       <c r="H138">
-        <v>471.81509399414063</v>
+        <v>471.8150939941406</v>
       </c>
       <c r="I138">
-        <v>-0.81699915117298516</v>
+        <v>-0.8169991511729852</v>
       </c>
       <c r="J138">
-        <v>-0.69442074578687141</v>
+        <v>-0.6944207457868714</v>
       </c>
       <c r="K138">
-        <v>-0.80035349175561721</v>
+        <v>-0.8003534917556172</v>
       </c>
       <c r="L138">
-        <v>-0.67692094567025551</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6769209456702555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>45552</v>
       </c>
@@ -5701,39 +5672,39 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>17.610000610351559</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="G139">
-        <v>107.19000244140619</v>
+        <v>107.1900024414062</v>
       </c>
       <c r="H139">
-        <v>472.06436157226563</v>
+        <v>472.0643615722656</v>
       </c>
       <c r="I139">
-        <v>-0.80806427877256815</v>
+        <v>-0.8080642787725681</v>
       </c>
       <c r="J139">
-        <v>-0.69232876642349961</v>
+        <v>-0.6923287664234996</v>
       </c>
       <c r="K139">
-        <v>-0.79696830152119902</v>
+        <v>-0.796968301521199</v>
       </c>
       <c r="L139">
-        <v>-0.67540855085003593</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6754085508500359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>45553</v>
       </c>
       <c r="B140">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5745,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>18.229999542236332</v>
+        <v>18.22999954223633</v>
       </c>
       <c r="G140">
         <v>105.4300003051758</v>
       </c>
       <c r="H140">
-        <v>470.02053833007813</v>
+        <v>470.0205383300781</v>
       </c>
       <c r="I140">
         <v>-0.8080919035933265</v>
@@ -5760,13 +5731,13 @@
         <v>-0.6874745457127075</v>
       </c>
       <c r="K140">
-        <v>-0.79547852764913973</v>
+        <v>-0.7954785276491397</v>
       </c>
       <c r="L140">
-        <v>-0.67155888939736441</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6715588893973644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="2">
         <v>45554</v>
       </c>
@@ -5783,28 +5754,28 @@
         <v>0.2</v>
       </c>
       <c r="F141">
-        <v>16.329999923706051</v>
+        <v>16.32999992370605</v>
       </c>
       <c r="G141">
-        <v>97.459999084472656</v>
+        <v>97.45999908447266</v>
       </c>
       <c r="H141">
-        <v>481.90463256835938</v>
+        <v>481.9046325683594</v>
       </c>
       <c r="I141">
-        <v>-0.81729478418960999</v>
+        <v>-0.81729478418961</v>
       </c>
       <c r="J141">
-        <v>-0.69441005251761123</v>
+        <v>-0.6944100525176112</v>
       </c>
       <c r="K141">
-        <v>-0.80630802587932959</v>
+        <v>-0.8063080258793296</v>
       </c>
       <c r="L141">
-        <v>-0.67830911924334247</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6783091192433425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="2">
         <v>45555</v>
       </c>
@@ -5815,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5824,30 +5795,30 @@
         <v>16.14999961853027</v>
       </c>
       <c r="G142">
-        <v>94.269996643066406</v>
+        <v>94.26999664306641</v>
       </c>
       <c r="H142">
-        <v>480.98739624023438</v>
+        <v>480.9873962402344</v>
       </c>
       <c r="I142">
-        <v>-0.82852740628930643</v>
+        <v>-0.8285274062893064</v>
       </c>
       <c r="J142">
-        <v>-0.71346062602168403</v>
+        <v>-0.713460626021684</v>
       </c>
       <c r="K142">
-        <v>-0.80972547532836336</v>
+        <v>-0.8097254753283634</v>
       </c>
       <c r="L142">
-        <v>-0.68667205660254227</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6866720566025423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>45558</v>
       </c>
       <c r="B143">
-        <v>17.760000000000002</v>
+        <v>17.76</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5862,25 +5833,25 @@
         <v>15.89000034332275</v>
       </c>
       <c r="G143">
-        <v>94.410003662109375</v>
+        <v>94.41000366210938</v>
       </c>
       <c r="H143">
-        <v>482.26235961914063</v>
+        <v>482.2623596191406</v>
       </c>
       <c r="I143">
-        <v>-0.83189725712924956</v>
+        <v>-0.8318972571292496</v>
       </c>
       <c r="J143">
-        <v>-0.71237689955042116</v>
+        <v>-0.7123768995504212</v>
       </c>
       <c r="K143">
         <v>-0.8153621186299469</v>
       </c>
       <c r="L143">
-        <v>-0.68824398403421472</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6882439840342147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>45559</v>
       </c>
@@ -5900,25 +5871,25 @@
         <v>15.39000034332275</v>
       </c>
       <c r="G144">
-        <v>90.930000305175781</v>
+        <v>90.93000030517578</v>
       </c>
       <c r="H144">
-        <v>484.58859252929688</v>
+        <v>484.5885925292969</v>
       </c>
       <c r="I144">
-        <v>-0.82480206067942707</v>
+        <v>-0.8248020606794271</v>
       </c>
       <c r="J144">
-        <v>-0.70257075002110581</v>
+        <v>-0.7025707500211058</v>
       </c>
       <c r="K144">
-        <v>-0.80776308930371077</v>
+        <v>-0.8077630893037108</v>
       </c>
       <c r="L144">
-        <v>-0.67196016029509886</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6719601602950989</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="2">
         <v>45560</v>
       </c>
@@ -5935,33 +5906,33 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>15.409999847412109</v>
+        <v>15.40999984741211</v>
       </c>
       <c r="G145">
-        <v>90.480003356933594</v>
+        <v>90.48000335693359</v>
       </c>
       <c r="H145">
-        <v>485.03787231445313</v>
+        <v>485.0378723144531</v>
       </c>
       <c r="I145">
-        <v>-0.82705171252134579</v>
+        <v>-0.8270517125213458</v>
       </c>
       <c r="J145">
-        <v>-0.70447723980947807</v>
+        <v>-0.7044772398094781</v>
       </c>
       <c r="K145">
-        <v>-0.81046529227480657</v>
+        <v>-0.8104652922748066</v>
       </c>
       <c r="L145">
-        <v>-0.67362979120380062</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6736297912038006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="2">
         <v>45561</v>
       </c>
       <c r="B146">
-        <v>17.809999999999999</v>
+        <v>17.81</v>
       </c>
       <c r="C146">
         <v>0.22</v>
@@ -5976,25 +5947,25 @@
         <v>15.36999988555908</v>
       </c>
       <c r="G146">
-        <v>89.860000610351563</v>
+        <v>89.86000061035156</v>
       </c>
       <c r="H146">
         <v>488.6820068359375</v>
       </c>
       <c r="I146">
-        <v>-0.83830788399231893</v>
+        <v>-0.8383078839923189</v>
       </c>
       <c r="J146">
-        <v>-0.72458385841614192</v>
+        <v>-0.7245838584161419</v>
       </c>
       <c r="K146">
-        <v>-0.80558484621804116</v>
+        <v>-0.8055848462180412</v>
       </c>
       <c r="L146">
-        <v>-0.67757733389919184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6775773338991918</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="2">
         <v>45562</v>
       </c>
@@ -6005,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>19.350000000000001</v>
+        <v>19.35</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6017,27 +5988,27 @@
         <v>101.3399963378906</v>
       </c>
       <c r="H147">
-        <v>485.96636962890619</v>
+        <v>485.9663696289062</v>
       </c>
       <c r="I147">
-        <v>-0.79276711980552661</v>
+        <v>-0.7927671198055266</v>
       </c>
       <c r="J147">
-        <v>-0.64425340006323539</v>
+        <v>-0.6442534000632354</v>
       </c>
       <c r="K147">
-        <v>-0.78966054937200092</v>
+        <v>-0.7896605493720009</v>
       </c>
       <c r="L147">
-        <v>-0.64934918687464904</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.649349186874649</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>45565</v>
       </c>
       <c r="B148">
-        <v>17.829999999999998</v>
+        <v>17.83</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -6049,28 +6020,28 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>16.729999542236332</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="G148">
-        <v>99.339996337890625</v>
+        <v>99.33999633789062</v>
       </c>
       <c r="H148">
-        <v>487.28424072265619</v>
+        <v>487.2842407226562</v>
       </c>
       <c r="I148">
-        <v>-0.79764235465430799</v>
+        <v>-0.797642354654308</v>
       </c>
       <c r="J148">
-        <v>-0.64680895454250731</v>
+        <v>-0.6468089545425073</v>
       </c>
       <c r="K148">
         <v>-0.8041414547361293</v>
       </c>
       <c r="L148">
-        <v>-0.66335947772001014</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6633594777200101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="2">
         <v>45566</v>
       </c>
@@ -6087,28 +6058,28 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>19.260000228881839</v>
+        <v>19.26000022888184</v>
       </c>
       <c r="G149">
-        <v>110.13999938964839</v>
+        <v>110.1399993896484</v>
       </c>
       <c r="H149">
-        <v>480.49517822265619</v>
+        <v>480.4951782226562</v>
       </c>
       <c r="I149">
-        <v>-0.81113940771489557</v>
+        <v>-0.8111394077148956</v>
       </c>
       <c r="J149">
-        <v>-0.66381622219476444</v>
+        <v>-0.6638162221947644</v>
       </c>
       <c r="K149">
-        <v>-0.81439313773884814</v>
+        <v>-0.8143931377388481</v>
       </c>
       <c r="L149">
-        <v>-0.67804172013098674</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6780417201309867</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="2">
         <v>45567</v>
       </c>
@@ -6131,22 +6102,22 @@
         <v>107.9700012207031</v>
       </c>
       <c r="H150">
-        <v>481.17410278320313</v>
+        <v>481.1741027832031</v>
       </c>
       <c r="I150">
-        <v>-0.71940881901378562</v>
+        <v>-0.7194088190137856</v>
       </c>
       <c r="J150">
         <v>-0.4356221004279428</v>
       </c>
       <c r="K150">
-        <v>-0.73358308026697816</v>
+        <v>-0.7335830802669782</v>
       </c>
       <c r="L150">
-        <v>-0.49788480963656589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4978848096365659</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="2">
         <v>45568</v>
       </c>
@@ -6163,33 +6134,33 @@
         <v>0.16</v>
       </c>
       <c r="F151">
-        <v>20.489999771118161</v>
+        <v>20.48999977111816</v>
       </c>
       <c r="G151">
-        <v>115.63999938964839</v>
+        <v>115.6399993896484</v>
       </c>
       <c r="H151">
-        <v>480.81466674804688</v>
+        <v>480.8146667480469</v>
       </c>
       <c r="I151">
-        <v>-0.74662571644127151</v>
+        <v>-0.7466257164412715</v>
       </c>
       <c r="J151">
-        <v>-0.49678909911654162</v>
+        <v>-0.4967890991165416</v>
       </c>
       <c r="K151">
-        <v>-0.74869655427361703</v>
+        <v>-0.748696554273617</v>
       </c>
       <c r="L151">
-        <v>-0.54568030612787266</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5456803061278727</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="2">
         <v>45569</v>
       </c>
       <c r="B152">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6207,22 +6178,22 @@
         <v>110.629997253418</v>
       </c>
       <c r="H152">
-        <v>486.53546142578119</v>
+        <v>486.5354614257812</v>
       </c>
       <c r="I152">
-        <v>-0.78574427096459709</v>
+        <v>-0.7857442709645971</v>
       </c>
       <c r="J152">
-        <v>-0.55728335559388753</v>
+        <v>-0.5572833555938875</v>
       </c>
       <c r="K152">
-        <v>-0.75271302390076689</v>
+        <v>-0.7527130239007669</v>
       </c>
       <c r="L152">
-        <v>-0.54838492108690395</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.548384921086904</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="2">
         <v>45572</v>
       </c>
@@ -6233,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>18.920000000000002</v>
+        <v>18.92</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>22.639999389648441</v>
+        <v>22.63999938964844</v>
       </c>
       <c r="G153">
         <v>122.5800018310547</v>
@@ -6248,19 +6219,19 @@
         <v>481.3238525390625</v>
       </c>
       <c r="I153">
-        <v>-0.72357173640144734</v>
+        <v>-0.7235717364014473</v>
       </c>
       <c r="J153">
-        <v>-0.60547547509816091</v>
+        <v>-0.6054754750981609</v>
       </c>
       <c r="K153">
-        <v>-0.78889555939416867</v>
+        <v>-0.7888955593941687</v>
       </c>
       <c r="L153">
-        <v>-0.69801376384324498</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.698013763843245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>45573</v>
       </c>
@@ -6277,28 +6248,28 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>21.420000076293949</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="G154">
         <v>114.8199996948242</v>
       </c>
       <c r="H154">
-        <v>488.51226806640619</v>
+        <v>488.5122680664062</v>
       </c>
       <c r="I154">
-        <v>-0.66355464045520518</v>
+        <v>-0.6635546404552052</v>
       </c>
       <c r="J154">
-        <v>-0.55213826404965427</v>
+        <v>-0.5521382640496543</v>
       </c>
       <c r="K154">
-        <v>-0.77040707841212686</v>
+        <v>-0.7704070784121269</v>
       </c>
       <c r="L154">
-        <v>-0.69768151827512193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6976815182751219</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="2">
         <v>45574</v>
       </c>
@@ -6315,28 +6286,28 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>20.860000610351559</v>
+        <v>20.86000061035156</v>
       </c>
       <c r="G155">
-        <v>119.36000061035161</v>
+        <v>119.3600006103516</v>
       </c>
       <c r="H155">
-        <v>492.35604858398438</v>
+        <v>492.3560485839844</v>
       </c>
       <c r="I155">
-        <v>-0.66288829341078614</v>
+        <v>-0.6628882934107861</v>
       </c>
       <c r="J155">
-        <v>-0.52833368325302088</v>
+        <v>-0.5283336832530209</v>
       </c>
       <c r="K155">
-        <v>-0.76710301495816291</v>
+        <v>-0.7671030149581629</v>
       </c>
       <c r="L155">
-        <v>-0.68799253359162293</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6879925335916229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="2">
         <v>45575</v>
       </c>
@@ -6350,31 +6321,31 @@
         <v>18.93</v>
       </c>
       <c r="E156">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F156">
-        <v>20.930000305175781</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="G156">
         <v>117.4300003051758</v>
       </c>
       <c r="H156">
-        <v>491.79696655273438</v>
+        <v>491.7969665527344</v>
       </c>
       <c r="I156">
-        <v>-0.58732993356385033</v>
+        <v>-0.5873299335638503</v>
       </c>
       <c r="J156">
-        <v>-0.43442847474893059</v>
+        <v>-0.4344284747489306</v>
       </c>
       <c r="K156">
-        <v>-0.66772986941197709</v>
+        <v>-0.6677298694119771</v>
       </c>
       <c r="L156">
-        <v>-0.56900906537020735</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5690090653702073</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="2">
         <v>45576</v>
       </c>
@@ -6397,33 +6368,33 @@
         <v>113.9899978637695</v>
       </c>
       <c r="H157">
-        <v>492.56570434570313</v>
+        <v>492.5657043457031</v>
       </c>
       <c r="I157">
         <v>-0.5826134631449329</v>
       </c>
       <c r="J157">
-        <v>-0.45831448949440012</v>
+        <v>-0.4583144894944001</v>
       </c>
       <c r="K157">
-        <v>-0.62271884624313034</v>
+        <v>-0.6227188462431303</v>
       </c>
       <c r="L157">
-        <v>-0.55054615242679561</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5505461524267956</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="2">
         <v>45579</v>
       </c>
       <c r="B158">
-        <v>17.690000000000001</v>
+        <v>17.69</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6435,27 +6406,27 @@
         <v>107.2200012207031</v>
       </c>
       <c r="H158">
-        <v>496.69906616210938</v>
+        <v>496.6990661621094</v>
       </c>
       <c r="I158">
-        <v>-0.58431966351641718</v>
+        <v>-0.5843196635164172</v>
       </c>
       <c r="J158">
-        <v>-0.46399254408600932</v>
+        <v>-0.4639925440860093</v>
       </c>
       <c r="K158">
-        <v>-0.62947038913509423</v>
+        <v>-0.6294703891350942</v>
       </c>
       <c r="L158">
-        <v>-0.57058966057601157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5705896605760116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>45580</v>
       </c>
       <c r="B159">
-        <v>17.489999999999998</v>
+        <v>17.49</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6467,28 +6438,28 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>20.639999389648441</v>
+        <v>20.63999938964844</v>
       </c>
       <c r="G159">
-        <v>112.90000152587891</v>
+        <v>112.9000015258789</v>
       </c>
       <c r="H159">
-        <v>490.05978393554688</v>
+        <v>490.0597839355469</v>
       </c>
       <c r="I159">
-        <v>-0.58889801077432802</v>
+        <v>-0.588898010774328</v>
       </c>
       <c r="J159">
-        <v>-0.49350109271145742</v>
+        <v>-0.4935010927114574</v>
       </c>
       <c r="K159">
-        <v>-0.63383415542193178</v>
+        <v>-0.6338341554219318</v>
       </c>
       <c r="L159">
-        <v>-0.57991715634359553</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5799171563435955</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="2">
         <v>45581</v>
       </c>
@@ -6505,66 +6476,66 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>19.579999923706051</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="G160">
         <v>111.620002746582</v>
       </c>
       <c r="H160">
-        <v>490.11968994140619</v>
+        <v>490.1196899414062</v>
       </c>
       <c r="I160">
-        <v>-0.61905981548913025</v>
+        <v>-0.6190598154891302</v>
       </c>
       <c r="J160">
-        <v>-0.50327576682722164</v>
+        <v>-0.5032757668272216</v>
       </c>
       <c r="K160">
-        <v>-0.63585164458335275</v>
+        <v>-0.6358516445833527</v>
       </c>
       <c r="L160">
         <v>-0.5829168606578965</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>45582</v>
       </c>
       <c r="B161">
-        <v>17.329999999999998</v>
+        <v>17.33</v>
       </c>
       <c r="C161">
         <v>0.18</v>
       </c>
       <c r="D161">
-        <v>18.670000000000002</v>
+        <v>18.67</v>
       </c>
       <c r="E161">
         <v>0.23</v>
       </c>
       <c r="F161">
-        <v>19.110000610351559</v>
+        <v>19.11000061035156</v>
       </c>
       <c r="G161">
-        <v>105.88999938964839</v>
+        <v>105.8899993896484</v>
       </c>
       <c r="H161">
-        <v>490.45913696289063</v>
+        <v>490.4591369628906</v>
       </c>
       <c r="I161">
-        <v>-0.54387464644078154</v>
+        <v>-0.5438746464407815</v>
       </c>
       <c r="J161">
-        <v>-0.38986686470810628</v>
+        <v>-0.3898668647081063</v>
       </c>
       <c r="K161">
-        <v>-0.60709645171380822</v>
+        <v>-0.6070964517138082</v>
       </c>
       <c r="L161">
-        <v>-0.49409448125019301</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.494094481250193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="2">
         <v>45583</v>
       </c>
@@ -6575,13 +6546,13 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>18.760000000000002</v>
+        <v>18.76</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <v>18.030000686645511</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="G162">
         <v>100.9499969482422</v>
@@ -6590,19 +6561,19 @@
         <v>493.6739501953125</v>
       </c>
       <c r="I162">
-        <v>-0.54965710632488618</v>
+        <v>-0.5496571063248862</v>
       </c>
       <c r="J162">
-        <v>-0.39492990881257789</v>
+        <v>-0.3949299088125779</v>
       </c>
       <c r="K162">
-        <v>-0.59754634153244168</v>
+        <v>-0.5975463415324417</v>
       </c>
       <c r="L162">
-        <v>-0.48054488962432029</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4805448896243203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>45586</v>
       </c>
@@ -6619,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>18.370000839233398</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="G163">
         <v>102.9599990844727</v>
@@ -6628,19 +6599,19 @@
         <v>494.6224365234375</v>
       </c>
       <c r="I163">
-        <v>-0.55535726129946883</v>
+        <v>-0.5553572612994688</v>
       </c>
       <c r="J163">
         <v>-0.4098933356666471</v>
       </c>
       <c r="K163">
-        <v>-0.58460950249679389</v>
+        <v>-0.5846095024967939</v>
       </c>
       <c r="L163">
-        <v>-0.47322372916278183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4732237291627818</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="2">
         <v>45587</v>
       </c>
@@ -6663,10 +6634,10 @@
         <v>100.5</v>
       </c>
       <c r="H164">
-        <v>495.16152954101563</v>
+        <v>495.1615295410156</v>
       </c>
       <c r="I164">
-        <v>-0.54006638890772452</v>
+        <v>-0.5400663889077245</v>
       </c>
       <c r="J164">
         <v>-0.3952728128236907</v>
@@ -6675,10 +6646,10 @@
         <v>-0.5837491193649702</v>
       </c>
       <c r="L164">
-        <v>-0.48633765220619141</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4863376522061914</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="2">
         <v>45588</v>
       </c>
@@ -6695,28 +6666,28 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>19.239999771118161</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="G165">
-        <v>108.11000061035161</v>
+        <v>108.1100006103516</v>
       </c>
       <c r="H165">
-        <v>487.57376098632813</v>
+        <v>487.5737609863281</v>
       </c>
       <c r="I165">
-        <v>-0.54295567224436814</v>
+        <v>-0.5429556722443681</v>
       </c>
       <c r="J165">
-        <v>-0.41373122770388981</v>
+        <v>-0.4137312277038898</v>
       </c>
       <c r="K165">
-        <v>-0.58241566828315539</v>
+        <v>-0.5824156682831554</v>
       </c>
       <c r="L165">
         <v>-0.5154532515860949</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="2">
         <v>45589</v>
       </c>
@@ -6733,16 +6704,16 @@
         <v>0.06</v>
       </c>
       <c r="F166">
-        <v>19.079999923706051</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="G166">
         <v>109.8399963378906</v>
       </c>
       <c r="H166">
-        <v>491.52740478515619</v>
+        <v>491.5274047851562</v>
       </c>
       <c r="I166">
-        <v>-0.54487213638932097</v>
+        <v>-0.544872136389321</v>
       </c>
       <c r="J166">
         <v>-0.4143916795900407</v>
@@ -6751,10 +6722,10 @@
         <v>-0.5350174786462657</v>
       </c>
       <c r="L166">
-        <v>-0.43031721883017399</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.430317218830174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="2">
         <v>45590</v>
       </c>
@@ -6771,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>20.329999923706051</v>
+        <v>20.32999992370605</v>
       </c>
       <c r="G167">
         <v>117.5</v>
@@ -6783,16 +6754,16 @@
         <v>-0.5247712201162128</v>
       </c>
       <c r="J167">
-        <v>-0.39055996758413158</v>
+        <v>-0.3905599675841316</v>
       </c>
       <c r="K167">
         <v>-0.5098705309562227</v>
       </c>
       <c r="L167">
-        <v>-0.39948730042994263</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3994873004299426</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="2">
         <v>45593</v>
       </c>
@@ -6812,30 +6783,30 @@
         <v>19.79999923706055</v>
       </c>
       <c r="G168">
-        <v>112.23000335693359</v>
+        <v>112.2300033569336</v>
       </c>
       <c r="H168">
-        <v>494.60244750976563</v>
+        <v>494.6024475097656</v>
       </c>
       <c r="I168">
-        <v>-0.60311785364635084</v>
+        <v>-0.6031178536463508</v>
       </c>
       <c r="J168">
-        <v>-0.53052874147705764</v>
+        <v>-0.5305287414770576</v>
       </c>
       <c r="K168">
         <v>-0.5237288077285549</v>
       </c>
       <c r="L168">
-        <v>-0.42414484650580608</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4241448465058061</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="2">
         <v>45594</v>
       </c>
       <c r="B169">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -6847,33 +6818,33 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>19.340000152587891</v>
+        <v>19.34000015258789</v>
       </c>
       <c r="G169">
         <v>108.6999969482422</v>
       </c>
       <c r="H169">
-        <v>499.35479736328119</v>
+        <v>499.3547973632812</v>
       </c>
       <c r="I169">
-        <v>-0.61660157509368385</v>
+        <v>-0.6166015750936839</v>
       </c>
       <c r="J169">
-        <v>-0.55077476204745268</v>
+        <v>-0.5507747620474527</v>
       </c>
       <c r="K169">
-        <v>-0.52799045346530815</v>
+        <v>-0.5279904534653082</v>
       </c>
       <c r="L169">
-        <v>-0.43326871402874539</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4332687140287454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="2">
         <v>45595</v>
       </c>
       <c r="B170">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6888,30 +6859,30 @@
         <v>20.35000038146973</v>
       </c>
       <c r="G170">
-        <v>112.76999664306641</v>
+        <v>112.7699966430664</v>
       </c>
       <c r="H170">
-        <v>495.58087158203119</v>
+        <v>495.5808715820312</v>
       </c>
       <c r="I170">
-        <v>-0.56872267064378756</v>
+        <v>-0.5687226706437876</v>
       </c>
       <c r="J170">
-        <v>-0.49619645284092417</v>
+        <v>-0.4961964528409242</v>
       </c>
       <c r="K170">
-        <v>-0.48469883006711961</v>
+        <v>-0.4846988300671196</v>
       </c>
       <c r="L170">
-        <v>-0.37961013575647851</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.3796101357564785</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>45596</v>
       </c>
       <c r="B171">
-        <v>16.920000000000002</v>
+        <v>16.92</v>
       </c>
       <c r="C171">
         <v>0.23</v>
@@ -6923,33 +6894,33 @@
         <v>0.15</v>
       </c>
       <c r="F171">
-        <v>23.159999847412109</v>
+        <v>23.15999984741211</v>
       </c>
       <c r="G171">
-        <v>121.88999938964839</v>
+        <v>121.8899993896484</v>
       </c>
       <c r="H171">
         <v>483.071044921875</v>
       </c>
       <c r="I171">
-        <v>-0.67798394264255457</v>
+        <v>-0.6779839426425546</v>
       </c>
       <c r="J171">
-        <v>-0.56793767200984802</v>
+        <v>-0.567937672009848</v>
       </c>
       <c r="K171">
-        <v>-0.63077608035883026</v>
+        <v>-0.6307760803588303</v>
       </c>
       <c r="L171">
-        <v>-0.49137962127157059</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4913796212715706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="2">
         <v>45597</v>
       </c>
       <c r="B172">
-        <v>16.940000000000001</v>
+        <v>16.94</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6961,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>21.879999160766602</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="G172">
         <v>119.120002746582</v>
@@ -6970,19 +6941,19 @@
         <v>486.645263671875</v>
       </c>
       <c r="I172">
-        <v>-0.65022899368278642</v>
+        <v>-0.6502289936827864</v>
       </c>
       <c r="J172">
-        <v>-0.53886632463230477</v>
+        <v>-0.5388663246323048</v>
       </c>
       <c r="K172">
-        <v>-0.63804069080886228</v>
+        <v>-0.6380406908088623</v>
       </c>
       <c r="L172">
-        <v>-0.48590805540889698</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.485908055408897</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="2">
         <v>45600</v>
       </c>
@@ -6993,34 +6964,34 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>18.690000000000001</v>
+        <v>18.69</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>21.979999542236332</v>
+        <v>21.97999954223633</v>
       </c>
       <c r="G173">
         <v>121.8000030517578</v>
       </c>
       <c r="H173">
-        <v>485.22756958007813</v>
+        <v>485.2275695800781</v>
       </c>
       <c r="I173">
-        <v>-0.62269296352542935</v>
+        <v>-0.6226929635254294</v>
       </c>
       <c r="J173">
-        <v>-0.50870789323984567</v>
+        <v>-0.5087078932398457</v>
       </c>
       <c r="K173">
-        <v>-0.61898845573786698</v>
+        <v>-0.618988455737867</v>
       </c>
       <c r="L173">
-        <v>-0.46879731782049278</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4687973178204928</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>45601</v>
       </c>
@@ -7037,28 +7008,28 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>20.489999771118161</v>
+        <v>20.48999977111816</v>
       </c>
       <c r="G174">
         <v>114.3199996948242</v>
       </c>
       <c r="H174">
-        <v>491.41757202148438</v>
+        <v>491.4175720214844</v>
       </c>
       <c r="I174">
-        <v>-0.77055722665932957</v>
+        <v>-0.7705572266593296</v>
       </c>
       <c r="J174">
         <v>-0.5788461348740136</v>
       </c>
       <c r="K174">
-        <v>-0.66485082069284585</v>
+        <v>-0.6648508206928458</v>
       </c>
       <c r="L174">
-        <v>-0.47081759853720978</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4708175985372098</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>45602</v>
       </c>
@@ -7075,28 +7046,28 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>16.270000457763668</v>
+        <v>16.27000045776367</v>
       </c>
       <c r="G175">
-        <v>97.239997863769531</v>
+        <v>97.23999786376953</v>
       </c>
       <c r="H175">
-        <v>504.76605224609381</v>
+        <v>504.7660522460938</v>
       </c>
       <c r="I175">
-        <v>-0.85106572461068242</v>
+        <v>-0.8510657246106824</v>
       </c>
       <c r="J175">
-        <v>-0.71660494474422431</v>
+        <v>-0.7166049447442243</v>
       </c>
       <c r="K175">
-        <v>-0.72776534607289878</v>
+        <v>-0.7277653460728988</v>
       </c>
       <c r="L175">
-        <v>-0.57093348071120953</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5709334807112095</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>45603</v>
       </c>
@@ -7116,25 +7087,25 @@
         <v>15.19999980926514</v>
       </c>
       <c r="G176">
-        <v>88.599998474121094</v>
+        <v>88.59999847412109</v>
       </c>
       <c r="H176">
-        <v>512.71319580078125</v>
+        <v>512.7131958007812</v>
       </c>
       <c r="I176">
-        <v>-0.83795254900746696</v>
+        <v>-0.837952549007467</v>
       </c>
       <c r="J176">
-        <v>-0.70492565979838528</v>
+        <v>-0.7049256597983853</v>
       </c>
       <c r="K176">
-        <v>-0.73255980417176425</v>
+        <v>-0.7325598041717643</v>
       </c>
       <c r="L176">
         <v>-0.5830810576752764</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="2">
         <v>45604</v>
       </c>
@@ -7151,28 +7122,28 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>14.939999580383301</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="G177">
-        <v>87.760002136230469</v>
+        <v>87.76000213623047</v>
       </c>
       <c r="H177">
-        <v>513.31231689453125</v>
+        <v>513.3123168945312</v>
       </c>
       <c r="I177">
-        <v>-0.84605025280863821</v>
+        <v>-0.8460502528086382</v>
       </c>
       <c r="J177">
         <v>-0.7235207260254839</v>
       </c>
       <c r="K177">
-        <v>-0.74507898096732061</v>
+        <v>-0.7450789809673206</v>
       </c>
       <c r="L177">
-        <v>-0.60682897226169585</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6068289722616959</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="2">
         <v>45607</v>
       </c>
@@ -7183,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7192,30 +7163,30 @@
         <v>14.97000026702881</v>
       </c>
       <c r="G178">
-        <v>90.730003356933594</v>
+        <v>90.73000335693359</v>
       </c>
       <c r="H178">
-        <v>513.01275634765625</v>
+        <v>513.0127563476562</v>
       </c>
       <c r="I178">
-        <v>-0.78227463681831921</v>
+        <v>-0.7822746368183192</v>
       </c>
       <c r="J178">
-        <v>-0.61091733846147411</v>
+        <v>-0.6109173384614741</v>
       </c>
       <c r="K178">
-        <v>-0.74934280967515277</v>
+        <v>-0.7493428096751528</v>
       </c>
       <c r="L178">
-        <v>-0.59709398477886066</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5970939847788607</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="2">
         <v>45608</v>
       </c>
       <c r="B179">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -7227,39 +7198,39 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>14.710000038146971</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="G179">
-        <v>89.449996948242188</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="H179">
         <v>512.084228515625</v>
       </c>
       <c r="I179">
-        <v>-0.78031974726979481</v>
+        <v>-0.7803197472697948</v>
       </c>
       <c r="J179">
-        <v>-0.61195623888793016</v>
+        <v>-0.6119562388879302</v>
       </c>
       <c r="K179">
         <v>-0.7444632570145302</v>
       </c>
       <c r="L179">
-        <v>-0.59119132834797095</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5911913283479709</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="2">
         <v>45609</v>
       </c>
       <c r="B180">
-        <v>17.940000000000001</v>
+        <v>17.94</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>19.940000000000001</v>
+        <v>19.94</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7268,25 +7239,25 @@
         <v>14.02000045776367</v>
       </c>
       <c r="G180">
-        <v>91.760002136230469</v>
+        <v>91.76000213623047</v>
       </c>
       <c r="H180">
-        <v>511.42532348632813</v>
+        <v>511.4253234863281</v>
       </c>
       <c r="I180">
-        <v>-0.73796167669598689</v>
+        <v>-0.7379616766959869</v>
       </c>
       <c r="J180">
-        <v>-0.60154717937329005</v>
+        <v>-0.6015471793732901</v>
       </c>
       <c r="K180">
-        <v>-0.73850943212946074</v>
+        <v>-0.7385094321294607</v>
       </c>
       <c r="L180">
-        <v>-0.57683328999586347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5768332899958635</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="2">
         <v>45610</v>
       </c>
@@ -7303,28 +7274,28 @@
         <v>0.21</v>
       </c>
       <c r="F181">
-        <v>14.310000419616699</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="G181">
-        <v>90.430000305175781</v>
+        <v>90.43000030517578</v>
       </c>
       <c r="H181">
-        <v>507.87106323242188</v>
+        <v>507.8710632324219</v>
       </c>
       <c r="I181">
-        <v>-0.73373570788423947</v>
+        <v>-0.7337357078842395</v>
       </c>
       <c r="J181">
-        <v>-0.56981790053623127</v>
+        <v>-0.5698179005362313</v>
       </c>
       <c r="K181">
-        <v>-0.73602291404606435</v>
+        <v>-0.7360229140460643</v>
       </c>
       <c r="L181">
         <v>-0.5306360084652032</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="2">
         <v>45611</v>
       </c>
@@ -7341,28 +7312,28 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>16.139999389648441</v>
+        <v>16.13999938964844</v>
       </c>
       <c r="G182">
-        <v>98.930000305175781</v>
+        <v>98.93000030517578</v>
       </c>
       <c r="H182">
-        <v>495.77056884765619</v>
+        <v>495.7705688476562</v>
       </c>
       <c r="I182">
-        <v>-0.71260576382987173</v>
+        <v>-0.7126057638298717</v>
       </c>
       <c r="J182">
-        <v>-0.60911989192162419</v>
+        <v>-0.6091198919216242</v>
       </c>
       <c r="K182">
-        <v>-0.78439248970913411</v>
+        <v>-0.7843924897091341</v>
       </c>
       <c r="L182">
-        <v>-0.63105423449487308</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6310542344948731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="2">
         <v>45614</v>
       </c>
@@ -7379,28 +7350,28 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>15.579999923706049</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="G183">
         <v>93.80999755859375</v>
       </c>
       <c r="H183">
-        <v>499.21499633789063</v>
+        <v>499.2149963378906</v>
       </c>
       <c r="I183">
-        <v>-0.70315967157599357</v>
+        <v>-0.7031596715759936</v>
       </c>
       <c r="J183">
-        <v>-0.61228645772631418</v>
+        <v>-0.6122864577263142</v>
       </c>
       <c r="K183">
-        <v>-0.78912883802275413</v>
+        <v>-0.7891288380227541</v>
       </c>
       <c r="L183">
-        <v>-0.63740128480584757</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6374012848058476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="2">
         <v>45615</v>
       </c>
@@ -7420,30 +7391,30 @@
         <v>16.35000038146973</v>
       </c>
       <c r="G184">
-        <v>97.370002746582031</v>
+        <v>97.37000274658203</v>
       </c>
       <c r="H184">
-        <v>502.64947509765619</v>
+        <v>502.6494750976562</v>
       </c>
       <c r="I184">
-        <v>-0.62193328922641233</v>
+        <v>-0.6219332892264123</v>
       </c>
       <c r="J184">
-        <v>-0.54234831959615137</v>
+        <v>-0.5423483195961514</v>
       </c>
       <c r="K184">
-        <v>-0.74299091798814654</v>
+        <v>-0.7429909179881465</v>
       </c>
       <c r="L184">
-        <v>-0.60072143744923157</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6007214374492316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="2">
         <v>45616</v>
       </c>
       <c r="B185">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -7455,28 +7426,28 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>17.159999847412109</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="G185">
         <v>102.1999969482422</v>
       </c>
       <c r="H185">
-        <v>502.35995483398438</v>
+        <v>502.3599548339844</v>
       </c>
       <c r="I185">
-        <v>-0.62779532150475847</v>
+        <v>-0.6277953215047585</v>
       </c>
       <c r="J185">
-        <v>-0.55701552429697698</v>
+        <v>-0.557015524296977</v>
       </c>
       <c r="K185">
-        <v>-0.74662959254031458</v>
+        <v>-0.7466295925403146</v>
       </c>
       <c r="L185">
-        <v>-0.60803962991005256</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6080396299100526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="2">
         <v>45617</v>
       </c>
@@ -7487,39 +7458,39 @@
         <v>0.24</v>
       </c>
       <c r="D186">
-        <v>19.329999999999998</v>
+        <v>19.33</v>
       </c>
       <c r="E186">
         <v>0.06</v>
       </c>
       <c r="F186">
-        <v>16.870000839233398</v>
+        <v>16.8700008392334</v>
       </c>
       <c r="G186">
         <v>101.3000030517578</v>
       </c>
       <c r="H186">
-        <v>504.16702270507813</v>
+        <v>504.1670227050781</v>
       </c>
       <c r="I186">
-        <v>-0.60690483601821377</v>
+        <v>-0.6069048360182138</v>
       </c>
       <c r="J186">
-        <v>-0.52510773315363091</v>
+        <v>-0.5251077331536309</v>
       </c>
       <c r="K186">
         <v>-0.7167120158169924</v>
       </c>
       <c r="L186">
-        <v>-0.56116061323166655</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5611606132316665</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="2">
         <v>45618</v>
       </c>
       <c r="B187">
-        <v>18.350000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -7531,28 +7502,28 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>15.239999771118161</v>
+        <v>15.23999977111816</v>
       </c>
       <c r="G187">
-        <v>95.129997253417969</v>
+        <v>95.12999725341797</v>
       </c>
       <c r="H187">
-        <v>504.97573852539063</v>
+        <v>504.9757385253906</v>
       </c>
       <c r="I187">
-        <v>-0.61865077799977986</v>
+        <v>-0.6186507779997799</v>
       </c>
       <c r="J187">
-        <v>-0.53788278364827047</v>
+        <v>-0.5378827836482705</v>
       </c>
       <c r="K187">
-        <v>-0.70427445202208505</v>
+        <v>-0.7042744520220851</v>
       </c>
       <c r="L187">
-        <v>-0.58499396671726034</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5849939667172603</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="2">
         <v>45621</v>
       </c>
@@ -7572,30 +7543,30 @@
         <v>14.60000038146973</v>
       </c>
       <c r="G188">
-        <v>88.790000915527344</v>
+        <v>88.79000091552734</v>
       </c>
       <c r="H188">
         <v>505.7744140625</v>
       </c>
       <c r="I188">
-        <v>-0.63282956992258454</v>
+        <v>-0.6328295699225845</v>
       </c>
       <c r="J188">
         <v>-0.5536464856311184</v>
       </c>
       <c r="K188">
-        <v>-0.74337848863224743</v>
+        <v>-0.7433784886322474</v>
       </c>
       <c r="L188">
         <v>-0.6261896760339728</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="2">
         <v>45622</v>
       </c>
       <c r="B189">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -7610,30 +7581,30 @@
         <v>14.10000038146973</v>
       </c>
       <c r="G189">
-        <v>87.709999084472656</v>
+        <v>87.70999908447266</v>
       </c>
       <c r="H189">
-        <v>508.49005126953119</v>
+        <v>508.4900512695312</v>
       </c>
       <c r="I189">
-        <v>-0.60486449129701003</v>
+        <v>-0.60486449129701</v>
       </c>
       <c r="J189">
-        <v>-0.53260871668214294</v>
+        <v>-0.5326087166821429</v>
       </c>
       <c r="K189">
-        <v>-0.74449749955049038</v>
+        <v>-0.7444974995504904</v>
       </c>
       <c r="L189">
-        <v>-0.62754355730619071</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6275435573061907</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="2">
         <v>45623</v>
       </c>
       <c r="B190">
-        <v>18.350000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -7648,25 +7619,25 @@
         <v>14.10000038146973</v>
       </c>
       <c r="G190">
-        <v>88.360000610351563</v>
+        <v>88.36000061035156</v>
       </c>
       <c r="H190">
-        <v>504.48648071289063</v>
+        <v>504.4864807128906</v>
       </c>
       <c r="I190">
-        <v>-0.60038034492773817</v>
+        <v>-0.6003803449277382</v>
       </c>
       <c r="J190">
-        <v>-0.52451946345775136</v>
+        <v>-0.5245194634577514</v>
       </c>
       <c r="K190">
-        <v>-0.74699032705144852</v>
+        <v>-0.7469903270514485</v>
       </c>
       <c r="L190">
-        <v>-0.62576331110662009</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6257633111066201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="2">
         <v>45625</v>
       </c>
@@ -7683,28 +7654,28 @@
         <v>0.2</v>
       </c>
       <c r="F191">
-        <v>13.510000228881839</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="G191">
-        <v>86.319999694824219</v>
+        <v>86.31999969482422</v>
       </c>
       <c r="H191">
-        <v>508.91934204101563</v>
+        <v>508.9193420410156</v>
       </c>
       <c r="I191">
-        <v>-0.55508103676081122</v>
+        <v>-0.5550810367608112</v>
       </c>
       <c r="J191">
-        <v>-0.48758508644375598</v>
+        <v>-0.487585086443756</v>
       </c>
       <c r="K191">
-        <v>-0.75508539803251173</v>
+        <v>-0.7550853980325117</v>
       </c>
       <c r="L191">
-        <v>-0.63169844950937049</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6316984495093705</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="2">
         <v>45628</v>
       </c>
@@ -7721,33 +7692,33 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>13.340000152587891</v>
+        <v>13.34000015258789</v>
       </c>
       <c r="G192">
-        <v>87.110000610351563</v>
+        <v>87.11000061035156</v>
       </c>
       <c r="H192">
-        <v>514.46038818359375</v>
+        <v>514.4603881835938</v>
       </c>
       <c r="I192">
         <v>-0.3837978080697737</v>
       </c>
       <c r="J192">
-        <v>-0.34301829374823162</v>
+        <v>-0.3430182937482316</v>
       </c>
       <c r="K192">
-        <v>-0.63797123872363026</v>
+        <v>-0.6379712387236303</v>
       </c>
       <c r="L192">
         <v>-0.5144269472081564</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="2">
         <v>45629</v>
       </c>
       <c r="B193">
-        <v>18.440000000000001</v>
+        <v>18.44</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -7762,36 +7733,36 @@
         <v>13.30000019073486</v>
       </c>
       <c r="G193">
-        <v>86.430000305175781</v>
+        <v>86.43000030517578</v>
       </c>
       <c r="H193">
-        <v>516.03790283203125</v>
+        <v>516.0379028320312</v>
       </c>
       <c r="I193">
-        <v>-0.39197919184134411</v>
+        <v>-0.3919791918413441</v>
       </c>
       <c r="J193">
-        <v>-0.34550501109377563</v>
+        <v>-0.3455050110937756</v>
       </c>
       <c r="K193">
-        <v>-0.62150515203423329</v>
+        <v>-0.6215051520342333</v>
       </c>
       <c r="L193">
-        <v>-0.51103046450019751</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5110304645001975</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="2">
         <v>45630</v>
       </c>
       <c r="B194">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -7800,74 +7771,74 @@
         <v>13.44999980926514</v>
       </c>
       <c r="G194">
-        <v>86.480003356933594</v>
+        <v>86.48000335693359</v>
       </c>
       <c r="H194">
         <v>522.4176025390625</v>
       </c>
       <c r="I194">
-        <v>-0.36679077801533122</v>
+        <v>-0.3667907780153312</v>
       </c>
       <c r="J194">
-        <v>-0.32383601951883062</v>
+        <v>-0.3238360195188306</v>
       </c>
       <c r="K194">
-        <v>-0.59966049915671371</v>
+        <v>-0.5996604991567137</v>
       </c>
       <c r="L194">
-        <v>-0.48906123468943941</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.4890612346894394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="2">
         <v>45631</v>
       </c>
       <c r="B195">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="C195">
         <v>0.24</v>
       </c>
       <c r="D195">
-        <v>19.739999999999998</v>
+        <v>19.74</v>
       </c>
       <c r="E195">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F195">
-        <v>13.539999961853029</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="G195">
-        <v>86.949996948242188</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="H195">
-        <v>520.96990966796875</v>
+        <v>520.9699096679688</v>
       </c>
       <c r="I195">
-        <v>-0.36079220454436117</v>
+        <v>-0.3607922045443612</v>
       </c>
       <c r="J195">
-        <v>-0.31282996290821669</v>
+        <v>-0.3128299629082167</v>
       </c>
       <c r="K195">
-        <v>-0.58701483614648575</v>
+        <v>-0.5870148361464858</v>
       </c>
       <c r="L195">
-        <v>-0.46742331806682103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.467423318066821</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="2">
         <v>45632</v>
       </c>
       <c r="B196">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>19.920000000000002</v>
+        <v>19.92</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7876,25 +7847,25 @@
         <v>12.77000045776367</v>
       </c>
       <c r="G196">
-        <v>87.379997253417969</v>
+        <v>87.37999725341797</v>
       </c>
       <c r="H196">
-        <v>525.63238525390625</v>
+        <v>525.6323852539062</v>
       </c>
       <c r="I196">
-        <v>-5.1564268755180831E-2</v>
+        <v>-0.05156426875518083</v>
       </c>
       <c r="J196">
-        <v>2.188670689360071E-2</v>
+        <v>0.02188670689360071</v>
       </c>
       <c r="K196">
-        <v>-0.39173009553922611</v>
+        <v>-0.3917300955392261</v>
       </c>
       <c r="L196">
-        <v>-0.20259983767223999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.20259983767224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>45635</v>
       </c>
@@ -7905,39 +7876,39 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <v>14.189999580383301</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="G197">
-        <v>93.839996337890625</v>
+        <v>93.83999633789062</v>
       </c>
       <c r="H197">
-        <v>521.53900146484375</v>
+        <v>521.5390014648438</v>
       </c>
       <c r="I197">
-        <v>-0.15306582817002501</v>
+        <v>-0.153065828170025</v>
       </c>
       <c r="J197">
-        <v>-7.7105687105979773E-2</v>
+        <v>-0.07710568710597977</v>
       </c>
       <c r="K197">
-        <v>-0.33999941318890953</v>
+        <v>-0.3399994131889095</v>
       </c>
       <c r="L197">
         <v>-0.1511593940438819</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="2">
         <v>45636</v>
       </c>
       <c r="B198">
-        <v>18.260000000000002</v>
+        <v>18.26</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -7949,28 +7920,28 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>14.180000305175779</v>
+        <v>14.18000030517578</v>
       </c>
       <c r="G198">
-        <v>94.349998474121094</v>
+        <v>94.34999847412109</v>
       </c>
       <c r="H198">
         <v>519.7618408203125</v>
       </c>
       <c r="I198">
-        <v>-0.15017618959870169</v>
+        <v>-0.1501761895987017</v>
       </c>
       <c r="J198">
-        <v>-7.8557816864715468E-2</v>
+        <v>-0.07855781686471547</v>
       </c>
       <c r="K198">
-        <v>-0.33561300179660208</v>
+        <v>-0.3356130017966021</v>
       </c>
       <c r="L198">
         <v>-0.1444166284649698</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="2">
         <v>45637</v>
       </c>
@@ -7987,13 +7958,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>13.579999923706049</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="G199">
-        <v>98.120002746582031</v>
+        <v>98.12000274658203</v>
       </c>
       <c r="H199">
-        <v>529.06683349609375</v>
+        <v>529.0668334960938</v>
       </c>
       <c r="I199">
         <v>-0.1975692229683253</v>
@@ -8005,10 +7976,10 @@
         <v>-0.3792476083876386</v>
       </c>
       <c r="L199">
-        <v>-7.8749559812964692E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.07874955981296469</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="2">
         <v>45638</v>
       </c>
@@ -8019,34 +7990,34 @@
         <v>0.12</v>
       </c>
       <c r="D200">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <v>13.920000076293951</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="G200">
-        <v>99.430000305175781</v>
+        <v>99.43000030517578</v>
       </c>
       <c r="H200">
-        <v>525.65240478515625</v>
+        <v>525.6524047851562</v>
       </c>
       <c r="I200">
-        <v>-0.21993415260837099</v>
+        <v>-0.219934152608371</v>
       </c>
       <c r="J200">
         <v>-0.1261127279646358</v>
       </c>
       <c r="K200">
-        <v>-0.39717748889938748</v>
+        <v>-0.3971774888993875</v>
       </c>
       <c r="L200">
-        <v>-9.2991451329716437E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.09299145132971644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>45639</v>
       </c>
@@ -8063,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>13.810000419616699</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="G201">
         <v>96.5</v>
@@ -8072,19 +8043,19 @@
         <v>529.6759033203125</v>
       </c>
       <c r="I201">
-        <v>-0.26025598769701169</v>
+        <v>-0.2602559876970117</v>
       </c>
       <c r="J201">
-        <v>-8.8786816812725933E-2</v>
+        <v>-0.08878681681272593</v>
       </c>
       <c r="K201">
-        <v>-0.38590516002795561</v>
+        <v>-0.3859051600279556</v>
       </c>
       <c r="L201">
-        <v>-7.7842777591885307E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.07784277759188531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="2">
         <v>45642</v>
       </c>
@@ -8095,45 +8066,45 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>20.309999999999999</v>
+        <v>20.31</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <v>14.689999580383301</v>
+        <v>14.6899995803833</v>
       </c>
       <c r="G202">
-        <v>98.349998474121094</v>
+        <v>98.34999847412109</v>
       </c>
       <c r="H202">
         <v>537.3035888671875</v>
       </c>
       <c r="I202">
-        <v>-0.21079289067383489</v>
+        <v>-0.2107928906738349</v>
       </c>
       <c r="J202">
         <v>-0.1264187634118463</v>
       </c>
       <c r="K202">
-        <v>-0.27476131136308291</v>
+        <v>-0.2747613113630829</v>
       </c>
       <c r="L202">
         <v>-0.1040308193891175</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="2">
         <v>45643</v>
       </c>
       <c r="B203">
-        <v>18.260000000000002</v>
+        <v>18.26</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>20.350000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8142,7 +8113,7 @@
         <v>15.86999988555908</v>
       </c>
       <c r="G203">
-        <v>100.73000335693359</v>
+        <v>100.7300033569336</v>
       </c>
       <c r="H203">
         <v>534.9373779296875</v>
@@ -8154,13 +8125,13 @@
         <v>-0.1135885244136759</v>
       </c>
       <c r="K203">
-        <v>-5.3738040278401268E-2</v>
+        <v>-0.05373804027840127</v>
       </c>
       <c r="L203">
-        <v>0.15559221645686061</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1555922164568606</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>45644</v>
       </c>
@@ -8177,28 +8148,28 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>27.620000839233398</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="G204">
-        <v>129.78999328613281</v>
+        <v>129.7899932861328</v>
       </c>
       <c r="H204">
-        <v>515.63848876953125</v>
+        <v>515.6384887695312</v>
       </c>
       <c r="I204">
-        <v>-0.68051233382433651</v>
+        <v>-0.6805123338243365</v>
       </c>
       <c r="J204">
-        <v>-0.59719089693397287</v>
+        <v>-0.5971908969339729</v>
       </c>
       <c r="K204">
-        <v>-0.67087160777328037</v>
+        <v>-0.6708716077732804</v>
       </c>
       <c r="L204">
-        <v>-0.53815146052116281</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5381514605211628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="2">
         <v>45645</v>
       </c>
@@ -8206,37 +8177,37 @@
         <v>17.29</v>
       </c>
       <c r="C205">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="D205">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="E205">
         <v>0.06</v>
       </c>
       <c r="F205">
-        <v>24.090000152587891</v>
+        <v>24.09000015258789</v>
       </c>
       <c r="G205">
-        <v>136.28999328613281</v>
+        <v>136.2899932861328</v>
       </c>
       <c r="H205">
-        <v>513.34222412109375</v>
+        <v>513.3422241210938</v>
       </c>
       <c r="I205">
-        <v>-0.67094672425065183</v>
+        <v>-0.6709467242506518</v>
       </c>
       <c r="J205">
-        <v>-0.66682635585804473</v>
+        <v>-0.6668263558580447</v>
       </c>
       <c r="K205">
-        <v>-0.67792080291861456</v>
+        <v>-0.6779208029186146</v>
       </c>
       <c r="L205">
-        <v>-0.57330029817016992</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5733002981701699</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="2">
         <v>45646</v>
       </c>
@@ -8253,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>18.360000610351559</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="G206">
         <v>114.0100021362305</v>
@@ -8262,10 +8233,10 @@
         <v>517.824951171875</v>
       </c>
       <c r="I206">
-        <v>-0.69753753829020948</v>
+        <v>-0.6975375382902095</v>
       </c>
       <c r="J206">
-        <v>-0.69282077613385273</v>
+        <v>-0.6928207761338527</v>
       </c>
       <c r="K206">
         <v>-0.6510788964727422</v>
@@ -8274,7 +8245,7 @@
         <v>-0.5073601905074121</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="2">
         <v>45649</v>
       </c>
@@ -8291,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>16.780000686645511</v>
+        <v>16.78000068664551</v>
       </c>
       <c r="G207">
         <v>102.3399963378906</v>
@@ -8300,24 +8271,24 @@
         <v>522.8699951171875</v>
       </c>
       <c r="I207">
-        <v>-0.69798325473451717</v>
+        <v>-0.6979832547345172</v>
       </c>
       <c r="J207">
-        <v>-0.67497827416946121</v>
+        <v>-0.6749782741694612</v>
       </c>
       <c r="K207">
-        <v>-0.67852029289226568</v>
+        <v>-0.6785202928922657</v>
       </c>
       <c r="L207">
-        <v>-0.55713061658604612</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5571306165860461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="2">
         <v>45650</v>
       </c>
       <c r="B208">
-        <v>17.850000000000001</v>
+        <v>17.85</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -8332,25 +8303,25 @@
         <v>14.27000045776367</v>
       </c>
       <c r="G208">
-        <v>91.050003051757813</v>
+        <v>91.05000305175781</v>
       </c>
       <c r="H208">
-        <v>529.96002197265625</v>
+        <v>529.9600219726562</v>
       </c>
       <c r="I208">
-        <v>-0.70561672771012884</v>
+        <v>-0.7056167277101288</v>
       </c>
       <c r="J208">
         <v>-0.6930635392132809</v>
       </c>
       <c r="K208">
-        <v>-0.71188256104110437</v>
+        <v>-0.7118825610411044</v>
       </c>
       <c r="L208">
-        <v>-0.61505370831044781</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6150537083104478</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="2">
         <v>45652</v>
       </c>
@@ -8370,25 +8341,25 @@
         <v>14.72999954223633</v>
       </c>
       <c r="G209">
-        <v>92.769996643066406</v>
+        <v>92.76999664306641</v>
       </c>
       <c r="H209">
         <v>529.5999755859375</v>
       </c>
       <c r="I209">
-        <v>-0.70448661918026489</v>
+        <v>-0.7044866191802649</v>
       </c>
       <c r="J209">
-        <v>-0.68905100124027108</v>
+        <v>-0.6890510012402711</v>
       </c>
       <c r="K209">
-        <v>-0.71563621282120404</v>
+        <v>-0.715636212821204</v>
       </c>
       <c r="L209">
-        <v>-0.63244388698748977</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6324438869874898</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="2">
         <v>45653</v>
       </c>
@@ -8411,33 +8382,33 @@
         <v>98.80999755859375</v>
       </c>
       <c r="H210">
-        <v>522.55999755859375</v>
+        <v>522.5599975585938</v>
       </c>
       <c r="I210">
-        <v>-0.69707540247193778</v>
+        <v>-0.6970754024719378</v>
       </c>
       <c r="J210">
-        <v>-0.70214526275627709</v>
+        <v>-0.7021452627562771</v>
       </c>
       <c r="K210">
-        <v>-0.68347907487989601</v>
+        <v>-0.683479074879896</v>
       </c>
       <c r="L210">
-        <v>-0.63185515489174005</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.63185515489174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="2">
         <v>45656</v>
       </c>
       <c r="B211">
-        <v>17.079999999999998</v>
+        <v>17.08</v>
       </c>
       <c r="C211">
         <v>0</v>
       </c>
       <c r="D211">
-        <v>19.510000000000002</v>
+        <v>19.51</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8452,19 +8423,19 @@
         <v>515.6099853515625</v>
       </c>
       <c r="I211">
-        <v>-0.70255363752201816</v>
+        <v>-0.7025536375220182</v>
       </c>
       <c r="J211">
-        <v>-0.70991108801530378</v>
+        <v>-0.7099110880153038</v>
       </c>
       <c r="K211">
-        <v>-0.68908816085129898</v>
+        <v>-0.689088160851299</v>
       </c>
       <c r="L211">
-        <v>-0.63687174619318154</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6368717461931815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="2">
         <v>45657</v>
       </c>
@@ -8487,22 +8458,22 @@
         <v>104.3300018310547</v>
       </c>
       <c r="H212">
-        <v>511.23001098632813</v>
+        <v>511.2300109863281</v>
       </c>
       <c r="I212">
         <v>-0.7187948768036746</v>
       </c>
       <c r="J212">
-        <v>-0.73106753082533593</v>
+        <v>-0.7310675308253359</v>
       </c>
       <c r="K212">
-        <v>-0.66861356040210473</v>
+        <v>-0.6686135604021047</v>
       </c>
       <c r="L212">
-        <v>-0.62614504199067067</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6261450419906707</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="2">
         <v>45659</v>
       </c>
@@ -8519,28 +8490,28 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>17.930000305175781</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="G213">
         <v>106.5899963378906</v>
       </c>
       <c r="H213">
-        <v>510.23001098632813</v>
+        <v>510.2300109863281</v>
       </c>
       <c r="I213">
-        <v>-0.72449311515354564</v>
+        <v>-0.7244931151535456</v>
       </c>
       <c r="J213">
-        <v>-0.74407990145438829</v>
+        <v>-0.7440799014543883</v>
       </c>
       <c r="K213">
-        <v>-0.67630855387461075</v>
+        <v>-0.6763085538746108</v>
       </c>
       <c r="L213">
-        <v>-0.64132498302104668</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6413249830210467</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="2">
         <v>45660</v>
       </c>
@@ -8557,28 +8528,28 @@
         <v>0.31</v>
       </c>
       <c r="F214">
-        <v>16.129999160766602</v>
+        <v>16.1299991607666</v>
       </c>
       <c r="G214">
-        <v>94.360000610351563</v>
+        <v>94.36000061035156</v>
       </c>
       <c r="H214">
-        <v>518.58001708984375</v>
+        <v>518.5800170898438</v>
       </c>
       <c r="I214">
-        <v>-0.73249384921547467</v>
+        <v>-0.7324938492154747</v>
       </c>
       <c r="J214">
-        <v>-0.76058779678934074</v>
+        <v>-0.7605877967893407</v>
       </c>
       <c r="K214">
-        <v>-0.67612602945392131</v>
+        <v>-0.6761260294539213</v>
       </c>
       <c r="L214">
-        <v>-0.62121731185641149</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6212173118564115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="2">
         <v>45663</v>
       </c>
@@ -8598,25 +8569,25 @@
         <v>16.04000091552734</v>
       </c>
       <c r="G215">
-        <v>95.889999389648438</v>
+        <v>95.88999938964844</v>
       </c>
       <c r="H215">
-        <v>524.53997802734375</v>
+        <v>524.5399780273438</v>
       </c>
       <c r="I215">
-        <v>-0.73378943012632059</v>
+        <v>-0.7337894301263206</v>
       </c>
       <c r="J215">
-        <v>-0.74824927521712392</v>
+        <v>-0.7482492752171239</v>
       </c>
       <c r="K215">
-        <v>-0.66995875520611725</v>
+        <v>-0.6699587552061173</v>
       </c>
       <c r="L215">
-        <v>-0.60298613321670624</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6029861332167062</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="2">
         <v>45664</v>
       </c>
@@ -8633,28 +8604,28 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>17.819999694824219</v>
+        <v>17.81999969482422</v>
       </c>
       <c r="G216">
         <v>106.370002746582</v>
       </c>
       <c r="H216">
-        <v>515.17999267578125</v>
+        <v>515.1799926757812</v>
       </c>
       <c r="I216">
-        <v>-0.74376839309624121</v>
+        <v>-0.7437683930962412</v>
       </c>
       <c r="J216">
         <v>-0.7738954083099524</v>
       </c>
       <c r="K216">
-        <v>-0.67705138665525888</v>
+        <v>-0.6770513866552589</v>
       </c>
       <c r="L216">
-        <v>-0.63497516078409055</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6349751607840906</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="2">
         <v>45665</v>
       </c>
@@ -8662,7 +8633,7 @@
         <v>16.73</v>
       </c>
       <c r="C217">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="D217">
         <v>18.84</v>
@@ -8680,19 +8651,19 @@
         <v>515.27001953125</v>
       </c>
       <c r="I217">
-        <v>-0.70907229993921406</v>
+        <v>-0.7090722999392141</v>
       </c>
       <c r="J217">
-        <v>-0.74274139855592769</v>
+        <v>-0.7427413985559277</v>
       </c>
       <c r="K217">
-        <v>-0.65464206216840881</v>
+        <v>-0.6546420621684088</v>
       </c>
       <c r="L217">
-        <v>-0.61410859986830346</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6141085998683035</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="2">
         <v>45667</v>
       </c>
@@ -8715,22 +8686,22 @@
         <v>115.4899978637695</v>
       </c>
       <c r="H218">
-        <v>507.19000244140619</v>
+        <v>507.1900024414062</v>
       </c>
       <c r="I218">
         <v>-0.7117157401743569</v>
       </c>
       <c r="J218">
-        <v>-0.74572316994512922</v>
+        <v>-0.7457231699451292</v>
       </c>
       <c r="K218">
-        <v>-0.66272268400134915</v>
+        <v>-0.6627226840013491</v>
       </c>
       <c r="L218">
-        <v>-0.62228289637437795</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6222828963743779</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="2">
         <v>45670</v>
       </c>
@@ -8741,45 +8712,45 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>19.190000534057621</v>
+        <v>19.19000053405762</v>
       </c>
       <c r="G219">
-        <v>110.94000244140619</v>
+        <v>110.9400024414062</v>
       </c>
       <c r="H219">
-        <v>505.55999755859381</v>
+        <v>505.5599975585938</v>
       </c>
       <c r="I219">
-        <v>-0.70138470383362994</v>
+        <v>-0.7013847038336299</v>
       </c>
       <c r="J219">
-        <v>-0.71770096432961505</v>
+        <v>-0.7177009643296151</v>
       </c>
       <c r="K219">
-        <v>-0.65796661818705549</v>
+        <v>-0.6579666181870555</v>
       </c>
       <c r="L219">
         <v>-0.6113074750421319</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="2">
         <v>45671</v>
       </c>
       <c r="B220">
-        <v>16.309999999999999</v>
+        <v>16.31</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>18.440000000000001</v>
+        <v>18.44</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -8791,65 +8762,65 @@
         <v>107.9300003051758</v>
       </c>
       <c r="H220">
-        <v>505.07998657226563</v>
+        <v>505.0799865722656</v>
       </c>
       <c r="I220">
-        <v>-0.70484965615389217</v>
+        <v>-0.7048496561538922</v>
       </c>
       <c r="J220">
-        <v>-0.76025464069698701</v>
+        <v>-0.760254640696987</v>
       </c>
       <c r="K220">
-        <v>-0.66950765104418342</v>
+        <v>-0.6695076510441834</v>
       </c>
       <c r="L220">
-        <v>-0.67745836302791795</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.677458363027918</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="2">
         <v>45672</v>
       </c>
       <c r="B221">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
       <c r="D221">
-        <v>18.850000000000001</v>
+        <v>18.85</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>16.120000839233398</v>
+        <v>16.1200008392334</v>
       </c>
       <c r="G221">
-        <v>97.790000915527344</v>
+        <v>97.79000091552734</v>
       </c>
       <c r="H221">
-        <v>516.70001220703125</v>
+        <v>516.7000122070312</v>
       </c>
       <c r="I221">
-        <v>-0.71616322491248041</v>
+        <v>-0.7161632249124804</v>
       </c>
       <c r="J221">
-        <v>-0.77357001442824924</v>
+        <v>-0.7735700144282492</v>
       </c>
       <c r="K221">
-        <v>-0.68104273359370027</v>
+        <v>-0.6810427335937003</v>
       </c>
       <c r="L221">
-        <v>-0.69685079757786184</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6968507975778618</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="2">
         <v>45673</v>
       </c>
       <c r="B222">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="C222">
         <v>0.11</v>
@@ -8864,25 +8835,25 @@
         <v>16.60000038146973</v>
       </c>
       <c r="G222">
-        <v>99.839996337890625</v>
+        <v>99.83999633789062</v>
       </c>
       <c r="H222">
-        <v>513.08001708984375</v>
+        <v>513.0800170898438</v>
       </c>
       <c r="I222">
-        <v>-0.71515710444124359</v>
+        <v>-0.7151571044412436</v>
       </c>
       <c r="J222">
-        <v>-0.77553653581628523</v>
+        <v>-0.7755365358162852</v>
       </c>
       <c r="K222">
-        <v>-0.67480714860345314</v>
+        <v>-0.6748071486034531</v>
       </c>
       <c r="L222">
-        <v>-0.69740386061078474</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6974038606107847</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="2">
         <v>45674</v>
       </c>
@@ -8902,25 +8873,25 @@
         <v>15.97000026702881</v>
       </c>
       <c r="G223">
-        <v>101.61000061035161</v>
+        <v>101.6100006103516</v>
       </c>
       <c r="H223">
         <v>521.739990234375</v>
       </c>
       <c r="I223">
-        <v>-0.72181822371082671</v>
+        <v>-0.7218182237108267</v>
       </c>
       <c r="J223">
-        <v>-0.75289759908862774</v>
+        <v>-0.7528975990886277</v>
       </c>
       <c r="K223">
-        <v>-0.71859720049251219</v>
+        <v>-0.7185972004925122</v>
       </c>
       <c r="L223">
         <v>-0.7143547140694525</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" s="2">
         <v>45678</v>
       </c>
@@ -8931,34 +8902,34 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>15.060000419616699</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="G224">
-        <v>98.260002136230469</v>
+        <v>98.26000213623047</v>
       </c>
       <c r="H224">
-        <v>524.79998779296875</v>
+        <v>524.7999877929688</v>
       </c>
       <c r="I224">
-        <v>-0.72795681538988988</v>
+        <v>-0.7279568153898899</v>
       </c>
       <c r="J224">
-        <v>-0.75664601334910986</v>
+        <v>-0.7566460133491099</v>
       </c>
       <c r="K224">
-        <v>-0.73218245912251145</v>
+        <v>-0.7321824591225115</v>
       </c>
       <c r="L224">
-        <v>-0.72383262613183696</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.723832626131837</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>45679</v>
       </c>
@@ -8969,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -8978,25 +8949,25 @@
         <v>15.10000038146973</v>
       </c>
       <c r="G225">
-        <v>100.55999755859381</v>
+        <v>100.5599975585938</v>
       </c>
       <c r="H225">
         <v>531.510009765625</v>
       </c>
       <c r="I225">
-        <v>-0.64748952380114766</v>
+        <v>-0.6474895238011477</v>
       </c>
       <c r="J225">
-        <v>-0.61791367419434462</v>
+        <v>-0.6179136741943446</v>
       </c>
       <c r="K225">
-        <v>-0.63764511992049244</v>
+        <v>-0.6376451199204924</v>
       </c>
       <c r="L225">
-        <v>-0.55664166253714908</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5566416625371491</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>45680</v>
       </c>
@@ -9007,7 +8978,7 @@
         <v>0.17</v>
       </c>
       <c r="D226">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="E226">
         <v>0.1</v>
@@ -9016,7 +8987,7 @@
         <v>15.02000045776367</v>
       </c>
       <c r="G226">
-        <v>99.519996643066406</v>
+        <v>99.51999664306641</v>
       </c>
       <c r="H226">
         <v>532.6400146484375</v>
@@ -9025,16 +8996,16 @@
         <v>-0.7272236209160261</v>
       </c>
       <c r="J226">
-        <v>-0.60509784946903666</v>
+        <v>-0.6050978494690367</v>
       </c>
       <c r="K226">
-        <v>-0.65897122916944129</v>
+        <v>-0.6589712291694413</v>
       </c>
       <c r="L226">
-        <v>-0.56571206695893939</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5657120669589394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="2">
         <v>45681</v>
       </c>
@@ -9063,21 +9034,21 @@
         <v>-0.74241274644374</v>
       </c>
       <c r="J227">
-        <v>-0.57838387500526167</v>
+        <v>-0.5783838750052617</v>
       </c>
       <c r="K227">
-        <v>-0.76344586256422042</v>
+        <v>-0.7634458625642204</v>
       </c>
       <c r="L227">
-        <v>-0.61178181714219804</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.611781817142198</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="2">
         <v>45684</v>
       </c>
       <c r="B228">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -9092,25 +9063,25 @@
         <v>17.89999961853027</v>
       </c>
       <c r="G228">
-        <v>110.30999755859381</v>
+        <v>110.3099975585938</v>
       </c>
       <c r="H228">
-        <v>514.21002197265625</v>
+        <v>514.2100219726562</v>
       </c>
       <c r="I228">
-        <v>-0.79757846308849056</v>
+        <v>-0.7975784630884906</v>
       </c>
       <c r="J228">
-        <v>-0.65573099544426472</v>
+        <v>-0.6557309954442647</v>
       </c>
       <c r="K228">
-        <v>-0.80099485703101991</v>
+        <v>-0.8009948570310199</v>
       </c>
       <c r="L228">
-        <v>-0.63267937334195479</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6326793733419548</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="2">
         <v>45685</v>
       </c>
@@ -9121,34 +9092,34 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>16.409999847412109</v>
+        <v>16.40999984741211</v>
       </c>
       <c r="G229">
         <v>103.7399978637695</v>
       </c>
       <c r="H229">
-        <v>521.80999755859375</v>
+        <v>521.8099975585938</v>
       </c>
       <c r="I229">
         <v>-0.7919147556561561</v>
       </c>
       <c r="J229">
-        <v>-0.64060108965875084</v>
+        <v>-0.6406010896587508</v>
       </c>
       <c r="K229">
-        <v>-0.78333360167041666</v>
+        <v>-0.7833336016704167</v>
       </c>
       <c r="L229">
-        <v>-0.60887043396339269</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6088704339633927</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="2">
         <v>45686</v>
       </c>
@@ -9165,28 +9136,28 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>16.559999465942379</v>
+        <v>16.55999946594238</v>
       </c>
       <c r="G230">
         <v>101.6800003051758</v>
       </c>
       <c r="H230">
-        <v>520.83001708984375</v>
+        <v>520.8300170898438</v>
       </c>
       <c r="I230">
-        <v>-0.79299500580115523</v>
+        <v>-0.7929950058011552</v>
       </c>
       <c r="J230">
         <v>-0.6400945052432363</v>
       </c>
       <c r="K230">
-        <v>-0.78733225476755242</v>
+        <v>-0.7873322547675524</v>
       </c>
       <c r="L230">
         <v>-0.6056657587643457</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="2">
         <v>45687</v>
       </c>
@@ -9203,33 +9174,33 @@
         <v>0.19</v>
       </c>
       <c r="F231">
-        <v>15.840000152587891</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="G231">
-        <v>98.319999694824219</v>
+        <v>98.31999969482422</v>
       </c>
       <c r="H231">
-        <v>523.04998779296875</v>
+        <v>523.0499877929688</v>
       </c>
       <c r="I231">
-        <v>-0.78256090741861917</v>
+        <v>-0.7825609074186192</v>
       </c>
       <c r="J231">
-        <v>-0.61354180097902422</v>
+        <v>-0.6135418009790242</v>
       </c>
       <c r="K231">
-        <v>-0.74943049611836576</v>
+        <v>-0.7494304961183658</v>
       </c>
       <c r="L231">
-        <v>-0.55413218592292779</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5541321859229278</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="2">
         <v>45688</v>
       </c>
       <c r="B232">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -9241,28 +9212,28 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>16.430000305175781</v>
+        <v>16.43000030517578</v>
       </c>
       <c r="G232">
         <v>101.5</v>
       </c>
       <c r="H232">
-        <v>522.28997802734375</v>
+        <v>522.2899780273438</v>
       </c>
       <c r="I232">
-        <v>-0.77671398459567798</v>
+        <v>-0.776713984595678</v>
       </c>
       <c r="J232">
-        <v>-0.60593317118126966</v>
+        <v>-0.6059331711812697</v>
       </c>
       <c r="K232">
-        <v>-0.73323423115643638</v>
+        <v>-0.7332342311564364</v>
       </c>
       <c r="L232">
-        <v>-0.53164358949190149</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5316435894919015</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="2">
         <v>45691</v>
       </c>
@@ -9279,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>18.620000839233398</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="G233">
         <v>109.0100021362305</v>
@@ -9288,19 +9259,19 @@
         <v>518.1099853515625</v>
       </c>
       <c r="I233">
-        <v>-0.77320437942015596</v>
+        <v>-0.773204379420156</v>
       </c>
       <c r="J233">
-        <v>-0.61541101100981155</v>
+        <v>-0.6154110110098115</v>
       </c>
       <c r="K233">
-        <v>-0.76235551573777993</v>
+        <v>-0.7623555157377799</v>
       </c>
       <c r="L233">
         <v>-0.5611355208524359</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="2">
         <v>45692</v>
       </c>
@@ -9326,19 +9297,19 @@
         <v>524.469970703125</v>
       </c>
       <c r="I234">
-        <v>-0.79937492629688711</v>
+        <v>-0.7993749262968871</v>
       </c>
       <c r="J234">
-        <v>-0.65320879150513855</v>
+        <v>-0.6532087915051386</v>
       </c>
       <c r="K234">
-        <v>-0.77551727076340993</v>
+        <v>-0.7755172707634099</v>
       </c>
       <c r="L234">
-        <v>-0.59273717353198452</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.5927371735319845</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="2">
         <v>45693</v>
       </c>
@@ -9349,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -9358,25 +9329,25 @@
         <v>15.77000045776367</v>
       </c>
       <c r="G235">
-        <v>97.290000915527344</v>
+        <v>97.29000091552734</v>
       </c>
       <c r="H235">
         <v>526.8499755859375</v>
       </c>
       <c r="I235">
-        <v>-0.74515050018886786</v>
+        <v>-0.7451505001888679</v>
       </c>
       <c r="J235">
-        <v>-0.61588891265017509</v>
+        <v>-0.6158889126501751</v>
       </c>
       <c r="K235">
-        <v>-0.74351849431420891</v>
+        <v>-0.7435184943142089</v>
       </c>
       <c r="L235">
         <v>-0.6057221404863451</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="2">
         <v>45694</v>
       </c>
@@ -9396,30 +9367,30 @@
         <v>15.5</v>
       </c>
       <c r="G236">
-        <v>96.769996643066406</v>
+        <v>96.76999664306641</v>
       </c>
       <c r="H236">
         <v>529.5999755859375</v>
       </c>
       <c r="I236">
-        <v>-0.75725213482620057</v>
+        <v>-0.7572521348262006</v>
       </c>
       <c r="J236">
-        <v>-0.64464777958255737</v>
+        <v>-0.6446477795825574</v>
       </c>
       <c r="K236">
         <v>-0.7582435513104081</v>
       </c>
       <c r="L236">
-        <v>-0.63803351067283931</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6380335106728393</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="2">
         <v>45695</v>
       </c>
       <c r="B237">
-        <v>16.440000000000001</v>
+        <v>16.44</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -9437,27 +9408,27 @@
         <v>101.4899978637695</v>
       </c>
       <c r="H237">
-        <v>522.91998291015625</v>
+        <v>522.9199829101562</v>
       </c>
       <c r="I237">
-        <v>-0.72065830137690778</v>
+        <v>-0.7206583013769078</v>
       </c>
       <c r="J237">
-        <v>-0.58865312236907696</v>
+        <v>-0.588653122369077</v>
       </c>
       <c r="K237">
-        <v>-0.74495276549782008</v>
+        <v>-0.7449527654978201</v>
       </c>
       <c r="L237">
-        <v>-0.61297234758881147</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6129723475888115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="2">
         <v>45698</v>
       </c>
       <c r="B238">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -9469,28 +9440,28 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>15.810000419616699</v>
+        <v>15.8100004196167</v>
       </c>
       <c r="G238">
-        <v>99.150001525878906</v>
+        <v>99.15000152587891</v>
       </c>
       <c r="H238">
         <v>529.25</v>
       </c>
       <c r="I238">
-        <v>-0.77643688646015774</v>
+        <v>-0.7764368864601577</v>
       </c>
       <c r="J238">
-        <v>-0.66692679228926899</v>
+        <v>-0.666926792289269</v>
       </c>
       <c r="K238">
-        <v>-0.76044796347255872</v>
+        <v>-0.7604479634725587</v>
       </c>
       <c r="L238">
-        <v>-0.64546674243166813</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-0.6454667424316681</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="2">
         <v>45699</v>
       </c>
@@ -9501,39 +9472,39 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>18.010000000000002</v>
+        <v>18.01</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
-        <v>16.020000457763668</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="G239">
-        <v>99.819999694824219</v>
+        <v>99.81999969482422</v>
       </c>
       <c r="H239">
         <v>527.989990234375</v>
       </c>
       <c r="I239">
-        <v>-0.74982939336746313</v>
+        <v>-0.7498293933674631</v>
       </c>
       <c r="J239">
-        <v>-0.64618553966770043</v>
+        <v>-0.6461855396677004</v>
       </c>
       <c r="K239">
-        <v>-0.77282898223885099</v>
+        <v>-0.772828982238851</v>
       </c>
       <c r="L239">
         <v>-0.6892067924698938</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="2">
         <v>45700</v>
       </c>
       <c r="B240">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -9548,16 +9519,16 @@
         <v>15.89000034332275</v>
       </c>
       <c r="G240">
-        <v>98.739997863769531</v>
+        <v>98.73999786376953</v>
       </c>
       <c r="H240">
-        <v>528.29998779296875</v>
+        <v>528.2999877929688</v>
       </c>
       <c r="I240">
-        <v>-0.77908245423485212</v>
+        <v>-0.7790824542348521</v>
       </c>
       <c r="J240">
-        <v>-0.72450051819662287</v>
+        <v>-0.7245005181966229</v>
       </c>
       <c r="K240">
         <v>-0.7771466932503257</v>
@@ -9566,7 +9537,7 @@
         <v>-0.7135686973852744</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" s="2">
         <v>45701</v>
       </c>
@@ -9577,7 +9548,7 @@
         <v>0.15</v>
       </c>
       <c r="D241">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="E241">
         <v>0.05</v>
@@ -9586,22 +9557,22 @@
         <v>15.10000038146973</v>
       </c>
       <c r="G241">
-        <v>95.480003356933594</v>
+        <v>95.48000335693359</v>
       </c>
       <c r="H241">
         <v>535.9000244140625</v>
       </c>
       <c r="I241">
-        <v>-0.77515161089785711</v>
+        <v>-0.7751516108978571</v>
       </c>
       <c r="J241">
-        <v>-0.72078849687455848</v>
+        <v>-0.7207884968745585</v>
       </c>
       <c r="K241">
-        <v>-0.79668301422731658</v>
+        <v>-0.7966830142273166</v>
       </c>
       <c r="L241">
-        <v>-0.74523560093024932</v>
+        <v>-0.7452356009302493</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -516,7 +516,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -592,7 +592,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978149414062</v>
+        <v>436.1978454589844</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -630,7 +630,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8185119628906</v>
+        <v>442.8184814453125</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -668,7 +668,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -972,7 +972,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1048,7 +1048,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297729492188</v>
+        <v>444.3297424316406</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -1124,7 +1124,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1200,7 +1200,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706726074219</v>
+        <v>441.9706420898438</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1390,7 +1390,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468688964844</v>
+        <v>438.4468994140625</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -1808,7 +1808,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1960,7 +1960,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203857421875</v>
+        <v>429.0203552246094</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2302,7 +2302,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943542480469</v>
+        <v>438.9943237304688</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2758,7 +2758,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686340332031</v>
+        <v>457.5686645507812</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -3024,7 +3024,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.24169921875</v>
+        <v>461.2416687011719</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3290,7 +3290,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320617675781</v>
+        <v>482.8320922851562</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -3366,7 +3366,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2586059570312</v>
+        <v>479.2585754394531</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -554,7 +554,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4740295410156</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -630,7 +630,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8184814453125</v>
+        <v>442.8185119628906</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -744,7 +744,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390319824219</v>
+        <v>441.0390625</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -896,7 +896,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -934,7 +934,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1428,7 +1428,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1466,7 +1466,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1504,7 +1504,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1580,7 +1580,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1694,7 +1694,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1732,7 +1732,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1770,7 +1770,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1846,7 +1846,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1960,7 +1960,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203552246094</v>
+        <v>429.0203857421875</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2302,7 +2302,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943237304688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2340,7 +2340,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2492,7 +2492,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2568,7 +2568,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2644,7 +2644,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2910,7 +2910,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3024,7 +3024,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.2416687011719</v>
+        <v>461.24169921875</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3100,7 +3100,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3176,7 +3176,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3404,7 +3404,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3518,7 +3518,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3670,7 +3670,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3746,7 +3746,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4050,7 +4050,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4088,7 +4088,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4354,7 +4354,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4392,7 +4392,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4506,7 +4506,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4734,7 +4734,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4772,7 +4772,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4848,7 +4848,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5152,7 +5152,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5456,7 +5456,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5532,7 +5532,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -554,7 +554,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4740295410156</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -668,7 +668,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -744,7 +744,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -782,7 +782,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -820,7 +820,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -896,7 +896,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706726074219</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -934,7 +934,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -972,7 +972,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1048,7 +1048,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297424316406</v>
+        <v>444.3297729492188</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -1124,7 +1124,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1200,7 +1200,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706420898438</v>
+        <v>441.9706726074219</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1390,7 +1390,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468994140625</v>
+        <v>438.4468688964844</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -1428,7 +1428,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1466,7 +1466,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1504,7 +1504,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1580,7 +1580,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1694,7 +1694,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840942382812</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1732,7 +1732,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652709960938</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1770,7 +1770,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454528808594</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1808,7 +1808,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1846,7 +1846,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -2340,7 +2340,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2492,7 +2492,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2568,7 +2568,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2644,7 +2644,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168518066406</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2758,7 +2758,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686645507812</v>
+        <v>457.5686340332031</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2910,7 +2910,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3100,7 +3100,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3176,7 +3176,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3290,7 +3290,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320922851562</v>
+        <v>482.8320617675781</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -3366,7 +3366,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2585754394531</v>
+        <v>479.2586059570312</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -3404,7 +3404,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3518,7 +3518,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3670,7 +3670,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3746,7 +3746,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4050,7 +4050,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4088,7 +4088,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4354,7 +4354,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4392,7 +4392,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4506,7 +4506,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4734,7 +4734,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4772,7 +4772,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4848,7 +4848,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5152,7 +5152,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5456,7 +5456,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5532,7 +5532,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -554,7 +554,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4740295410156</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -706,7 +706,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8060913085938</v>
+        <v>434.8061218261719</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -744,7 +744,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390319824219</v>
+        <v>441.0390930175781</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -782,7 +782,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -820,7 +820,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457458496094</v>
+        <v>436.5457763671875</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -858,7 +858,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -934,7 +934,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1048,7 +1048,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297729492188</v>
+        <v>444.3297424316406</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -1086,7 +1086,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171936035156</v>
+        <v>442.7171630859375</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1200,7 +1200,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706726074219</v>
+        <v>441.9706420898438</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -1238,7 +1238,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063110351562</v>
+        <v>442.9063415527344</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1390,7 +1390,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468688964844</v>
+        <v>438.4468994140625</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -1428,7 +1428,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1466,7 +1466,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1504,7 +1504,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1580,7 +1580,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1846,7 +1846,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1884,7 +1884,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.551025390625</v>
+        <v>424.5509948730469</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2150,7 +2150,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4798278808594</v>
+        <v>433.4797973632812</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2340,7 +2340,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8818359375</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2492,7 +2492,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2568,7 +2568,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2606,7 +2606,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064819335938</v>
+        <v>453.7064514160156</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8466491699219</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2758,7 +2758,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686340332031</v>
+        <v>457.5686645507812</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2910,7 +2910,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3100,7 +3100,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3176,7 +3176,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3290,7 +3290,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320617675781</v>
+        <v>482.8320922851562</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -3366,7 +3366,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2586059570312</v>
+        <v>479.2585754394531</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -3404,7 +3404,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3518,7 +3518,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3670,7 +3670,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3746,7 +3746,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4050,7 +4050,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4088,7 +4088,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4354,7 +4354,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4392,7 +4392,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4506,7 +4506,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4734,7 +4734,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4772,7 +4772,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4848,7 +4848,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5152,7 +5152,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5456,7 +5456,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5532,7 +5532,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -516,7 +516,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -744,7 +744,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390930175781</v>
+        <v>441.0390625</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -782,7 +782,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.649169921875</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -858,7 +858,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -896,7 +896,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -972,7 +972,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1086,7 +1086,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1124,7 +1124,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1238,7 +1238,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1694,7 +1694,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1732,7 +1732,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1770,7 +1770,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1808,7 +1808,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1884,7 +1884,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2150,7 +2150,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2606,7 +2606,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2644,7 +2644,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -516,7 +516,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -554,7 +554,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4739685058594</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -592,7 +592,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978454589844</v>
+        <v>436.1978149414062</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -668,7 +668,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -896,7 +896,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706726074219</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -972,7 +972,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1086,7 +1086,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171936035156</v>
+        <v>442.7171630859375</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1124,7 +1124,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1238,7 +1238,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063110351562</v>
+        <v>442.9063415527344</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1694,7 +1694,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840942382812</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1732,7 +1732,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652709960938</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1770,7 +1770,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454528808594</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1808,7 +1808,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1884,7 +1884,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.551025390625</v>
+        <v>424.5509948730469</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2150,7 +2150,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4798278808594</v>
+        <v>433.4797973632812</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818359375</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2606,7 +2606,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064819335938</v>
+        <v>453.7064514160156</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2644,7 +2644,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168518066406</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466491699219</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -516,7 +516,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -554,7 +554,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739685058594</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -592,7 +592,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978149414062</v>
+        <v>436.1978454589844</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -668,7 +668,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -706,7 +706,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8061218261719</v>
+        <v>434.8060913085938</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -782,7 +782,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.649169921875</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -858,7 +858,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -934,7 +934,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -972,7 +972,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1086,7 +1086,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1124,7 +1124,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1238,7 +1238,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1428,7 +1428,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1466,7 +1466,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1504,7 +1504,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1580,7 +1580,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1808,7 +1808,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1846,7 +1846,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1884,7 +1884,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -1960,7 +1960,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203857421875</v>
+        <v>429.0203552246094</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2150,7 +2150,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2302,7 +2302,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943542480469</v>
+        <v>438.9943237304688</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2340,7 +2340,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2492,7 +2492,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2568,7 +2568,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2606,7 +2606,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2910,7 +2910,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3024,7 +3024,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.24169921875</v>
+        <v>461.2416687011719</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3100,7 +3100,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3176,7 +3176,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3404,7 +3404,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3518,7 +3518,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3670,7 +3670,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3746,7 +3746,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4050,7 +4050,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4088,7 +4088,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4354,7 +4354,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4392,7 +4392,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4506,7 +4506,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4734,7 +4734,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4772,7 +4772,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4848,7 +4848,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5152,7 +5152,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5456,7 +5456,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5532,7 +5532,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -668,7 +668,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -744,7 +744,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -782,7 +782,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -858,7 +858,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3566589355469</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -934,7 +934,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1428,7 +1428,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1466,7 +1466,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1504,7 +1504,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1580,7 +1580,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1732,7 +1732,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1770,7 +1770,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1846,7 +1846,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -1960,7 +1960,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203552246094</v>
+        <v>429.0203857421875</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2302,7 +2302,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943237304688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2340,7 +2340,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2492,7 +2492,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2568,7 +2568,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2644,7 +2644,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2910,7 +2910,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3024,7 +3024,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.2416687011719</v>
+        <v>461.24169921875</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3100,7 +3100,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3176,7 +3176,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3214,7 +3214,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3404,7 +3404,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3518,7 +3518,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3670,7 +3670,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3746,7 +3746,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4050,7 +4050,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4088,7 +4088,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4354,7 +4354,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4392,7 +4392,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4506,7 +4506,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4734,7 +4734,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4772,7 +4772,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4848,7 +4848,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5152,7 +5152,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5456,7 +5456,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5532,7 +5532,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Prices and Statistics.xlsx
+++ b/Data/Strategy 2 Prices and Statistics.xlsx
@@ -478,7 +478,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -516,7 +516,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -630,7 +630,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8185119628906</v>
+        <v>442.8184814453125</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -820,7 +820,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -858,7 +858,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566589355469</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -896,7 +896,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -1010,7 +1010,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1352,7 +1352,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1694,7 +1694,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1922,7 +1922,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2036,7 +2036,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2074,7 +2074,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2188,7 +2188,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2264,7 +2264,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2416,7 +2416,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2720,7 +2720,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2796,7 +2796,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2872,7 +2872,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
